--- a/Bukan Infografis/milo tokopedia/milo tokopedia.xlsx
+++ b/Bukan Infografis/milo tokopedia/milo tokopedia.xlsx
@@ -3414,7 +3414,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -3451,7 +3453,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3776,7 +3778,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="3">
@@ -3793,7 +3795,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="4">
@@ -3810,7 +3812,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="5">
@@ -3827,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="6">
@@ -3844,7 +3846,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="7">
@@ -3861,7 +3863,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="8">
@@ -3878,7 +3880,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="9">
@@ -3895,7 +3897,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="10">
@@ -3912,7 +3914,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="11">
@@ -3929,7 +3931,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="12">
@@ -3946,7 +3948,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="13">
@@ -3963,7 +3965,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="14">
@@ -3980,7 +3982,7 @@
         <v>54</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="15">
@@ -3997,7 +3999,7 @@
         <v>58</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="16">
@@ -4014,7 +4016,7 @@
         <v>62</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="17">
@@ -4031,7 +4033,7 @@
         <v>66</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="18">
@@ -4048,7 +4050,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="19">
@@ -4065,7 +4067,7 @@
         <v>72</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="20">
@@ -4082,7 +4084,7 @@
         <v>76</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="21">
@@ -4099,7 +4101,7 @@
         <v>79</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="22">
@@ -4116,7 +4118,7 @@
         <v>82</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="23">
@@ -4133,7 +4135,7 @@
         <v>84</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="24">
@@ -4150,7 +4152,7 @@
         <v>88</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="25">
@@ -4167,7 +4169,7 @@
         <v>91</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="26">
@@ -4184,7 +4186,7 @@
         <v>95</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="27">
@@ -4201,7 +4203,7 @@
         <v>99</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="28">
@@ -4218,7 +4220,7 @@
         <v>101</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="29">
@@ -4235,7 +4237,7 @@
         <v>105</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="30">
@@ -4252,7 +4254,7 @@
         <v>108</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="31">
@@ -4269,7 +4271,7 @@
         <v>112</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="32">
@@ -4286,7 +4288,7 @@
         <v>115</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="33">
@@ -4303,7 +4305,7 @@
         <v>118</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="34">
@@ -4320,7 +4322,7 @@
         <v>120</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="35">
@@ -4337,7 +4339,7 @@
         <v>122</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="36">
@@ -4354,7 +4356,7 @@
         <v>126</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="37">
@@ -4371,7 +4373,7 @@
         <v>129</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="38">
@@ -4388,7 +4390,7 @@
         <v>132</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="39">
@@ -4405,7 +4407,7 @@
         <v>136</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="40">
@@ -4422,7 +4424,7 @@
         <v>140</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="41">
@@ -4439,7 +4441,7 @@
         <v>144</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="42">
@@ -4456,7 +4458,7 @@
         <v>147</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="43">
@@ -4473,7 +4475,7 @@
         <v>150</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="44">
@@ -4490,7 +4492,7 @@
         <v>154</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="45">
@@ -4507,7 +4509,7 @@
         <v>158</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="46">
@@ -4524,7 +4526,7 @@
         <v>161</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="47">
@@ -4541,7 +4543,7 @@
         <v>164</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="48">
@@ -4558,7 +4560,7 @@
         <v>166</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="49">
@@ -4575,7 +4577,7 @@
         <v>170</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="50">
@@ -4592,7 +4594,7 @@
         <v>172</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="51">
@@ -4609,7 +4611,7 @@
         <v>176</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="52">
@@ -4626,7 +4628,7 @@
         <v>180</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="53">
@@ -4643,7 +4645,7 @@
         <v>184</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="54">
@@ -4660,7 +4662,7 @@
         <v>188</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="55">
@@ -4677,7 +4679,7 @@
         <v>192</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="56">
@@ -4694,7 +4696,7 @@
         <v>194</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="57">
@@ -4711,7 +4713,7 @@
         <v>197</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="58">
@@ -4728,7 +4730,7 @@
         <v>200</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="59">
@@ -4745,7 +4747,7 @@
         <v>203</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="60">
@@ -4762,7 +4764,7 @@
         <v>207</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="61">
@@ -4779,7 +4781,7 @@
         <v>211</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="62">
@@ -4796,7 +4798,7 @@
         <v>215</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="63">
@@ -4813,7 +4815,7 @@
         <v>218</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="64">
@@ -4830,7 +4832,7 @@
         <v>221</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="65">
@@ -4847,7 +4849,7 @@
         <v>224</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="66">
@@ -4864,7 +4866,7 @@
         <v>227</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="67">
@@ -4881,7 +4883,7 @@
         <v>231</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="68">
@@ -4898,7 +4900,7 @@
         <v>234</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="69">
@@ -4915,7 +4917,7 @@
         <v>238</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="70">
@@ -4932,7 +4934,7 @@
         <v>242</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="71">
@@ -4949,7 +4951,7 @@
         <v>245</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="72">
@@ -4966,7 +4968,7 @@
         <v>247</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="73">
@@ -4983,7 +4985,7 @@
         <v>250</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="74">
@@ -5000,7 +5002,7 @@
         <v>253</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="75">
@@ -5017,7 +5019,7 @@
         <v>242</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="76">
@@ -5034,7 +5036,7 @@
         <v>259</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="77">
@@ -5051,7 +5053,7 @@
         <v>262</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="78">
@@ -5068,7 +5070,7 @@
         <v>265</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="79">
@@ -5085,7 +5087,7 @@
         <v>269</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="80">
@@ -5102,7 +5104,7 @@
         <v>272</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="81">
@@ -5119,7 +5121,7 @@
         <v>276</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="82">
@@ -5136,7 +5138,7 @@
         <v>280</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="83">
@@ -5153,7 +5155,7 @@
         <v>284</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="84">
@@ -5170,7 +5172,7 @@
         <v>286</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="85">
@@ -5187,7 +5189,7 @@
         <v>290</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="86">
@@ -5204,7 +5206,7 @@
         <v>294</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="87">
@@ -5221,7 +5223,7 @@
         <v>296</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="88">
@@ -5238,7 +5240,7 @@
         <v>298</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="89">
@@ -5255,7 +5257,7 @@
         <v>302</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="90">
@@ -5272,7 +5274,7 @@
         <v>304</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="91">
@@ -5289,7 +5291,7 @@
         <v>308</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="92">
@@ -5306,7 +5308,7 @@
         <v>312</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="93">
@@ -5323,7 +5325,7 @@
         <v>315</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="94">
@@ -5340,7 +5342,7 @@
         <v>317</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="95">
@@ -5357,7 +5359,7 @@
         <v>319</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="96">
@@ -5374,7 +5376,7 @@
         <v>322</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="97">
@@ -5391,7 +5393,7 @@
         <v>325</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="98">
@@ -5408,7 +5410,7 @@
         <v>328</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="99">
@@ -5425,7 +5427,7 @@
         <v>331</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="100">
@@ -5442,7 +5444,7 @@
         <v>129</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="101">
@@ -5459,7 +5461,7 @@
         <v>336</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="102">
@@ -5476,7 +5478,7 @@
         <v>338</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="103">
@@ -5493,7 +5495,7 @@
         <v>341</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="104">
@@ -5510,7 +5512,7 @@
         <v>343</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="105">
@@ -5527,7 +5529,7 @@
         <v>346</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="106">
@@ -5544,7 +5546,7 @@
         <v>349</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="107">
@@ -5561,7 +5563,7 @@
         <v>352</v>
       </c>
       <c r="E107" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="108">
@@ -5578,7 +5580,7 @@
         <v>355</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="109">
@@ -5595,7 +5597,7 @@
         <v>359</v>
       </c>
       <c r="E109" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="110">
@@ -5612,7 +5614,7 @@
         <v>276</v>
       </c>
       <c r="E110" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="111">
@@ -5629,7 +5631,7 @@
         <v>365</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="112">
@@ -5646,7 +5648,7 @@
         <v>369</v>
       </c>
       <c r="E112" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="113">
@@ -5663,7 +5665,7 @@
         <v>371</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="114">
@@ -5680,7 +5682,7 @@
         <v>374</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="115">
@@ -5697,7 +5699,7 @@
         <v>377</v>
       </c>
       <c r="E115" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="116">
@@ -5714,7 +5716,7 @@
         <v>379</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="117">
@@ -5731,7 +5733,7 @@
         <v>382</v>
       </c>
       <c r="E117" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="118">
@@ -5748,7 +5750,7 @@
         <v>384</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="119">
@@ -5765,7 +5767,7 @@
         <v>387</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="120">
@@ -5782,7 +5784,7 @@
         <v>389</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="121">
@@ -5799,7 +5801,7 @@
         <v>393</v>
       </c>
       <c r="E121" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="122">
@@ -5816,7 +5818,7 @@
         <v>304</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="123">
@@ -5833,7 +5835,7 @@
         <v>399</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="124">
@@ -5850,7 +5852,7 @@
         <v>403</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="125">
@@ -5867,7 +5869,7 @@
         <v>407</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="126">
@@ -5884,7 +5886,7 @@
         <v>411</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="127">
@@ -5901,7 +5903,7 @@
         <v>284</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="128">
@@ -5918,7 +5920,7 @@
         <v>415</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="129">
@@ -5935,7 +5937,7 @@
         <v>417</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="130">
@@ -5952,7 +5954,7 @@
         <v>420</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="131">
@@ -5969,7 +5971,7 @@
         <v>423</v>
       </c>
       <c r="E131" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="132">
@@ -5986,7 +5988,7 @@
         <v>426</v>
       </c>
       <c r="E132" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="133">
@@ -6003,7 +6005,7 @@
         <v>430</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="134">
@@ -6020,7 +6022,7 @@
         <v>434</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="135">
@@ -6037,7 +6039,7 @@
         <v>437</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="136">
@@ -6054,7 +6056,7 @@
         <v>221</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="137">
@@ -6071,7 +6073,7 @@
         <v>442</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="138">
@@ -6088,7 +6090,7 @@
         <v>444</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="139">
@@ -6105,7 +6107,7 @@
         <v>448</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="140">
@@ -6122,7 +6124,7 @@
         <v>451</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="141">
@@ -6139,7 +6141,7 @@
         <v>369</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="142">
@@ -6156,7 +6158,7 @@
         <v>455</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="143">
@@ -6173,7 +6175,7 @@
         <v>459</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="144">
@@ -6190,7 +6192,7 @@
         <v>462</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="145">
@@ -6207,7 +6209,7 @@
         <v>466</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="146">
@@ -6224,7 +6226,7 @@
         <v>469</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="147">
@@ -6241,7 +6243,7 @@
         <v>472</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="148">
@@ -6258,7 +6260,7 @@
         <v>284</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="149">
@@ -6275,7 +6277,7 @@
         <v>477</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="150">
@@ -6292,7 +6294,7 @@
         <v>481</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="151">
@@ -6309,7 +6311,7 @@
         <v>238</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="152">
@@ -6326,7 +6328,7 @@
         <v>484</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="153">
@@ -6343,7 +6345,7 @@
         <v>487</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="154">
@@ -6360,7 +6362,7 @@
         <v>490</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="155">
@@ -6377,7 +6379,7 @@
         <v>492</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="156">
@@ -6394,7 +6396,7 @@
         <v>496</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="157">
@@ -6411,7 +6413,7 @@
         <v>498</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="158">
@@ -6428,7 +6430,7 @@
         <v>501</v>
       </c>
       <c r="E158" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="159">
@@ -6445,7 +6447,7 @@
         <v>504</v>
       </c>
       <c r="E159" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="160">
@@ -6462,7 +6464,7 @@
         <v>508</v>
       </c>
       <c r="E160" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="161">
@@ -6479,7 +6481,7 @@
         <v>512</v>
       </c>
       <c r="E161" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="162">
@@ -6496,7 +6498,7 @@
         <v>513</v>
       </c>
       <c r="E162" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="163">
@@ -6513,7 +6515,7 @@
         <v>515</v>
       </c>
       <c r="E163" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="164">
@@ -6530,7 +6532,7 @@
         <v>519</v>
       </c>
       <c r="E164" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="165">
@@ -6547,7 +6549,7 @@
         <v>522</v>
       </c>
       <c r="E165" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="166">
@@ -6564,7 +6566,7 @@
         <v>238</v>
       </c>
       <c r="E166" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="167">
@@ -6581,7 +6583,7 @@
         <v>527</v>
       </c>
       <c r="E167" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="168">
@@ -6598,7 +6600,7 @@
         <v>529</v>
       </c>
       <c r="E168" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="169">
@@ -6615,7 +6617,7 @@
         <v>531</v>
       </c>
       <c r="E169" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="170">
@@ -6632,7 +6634,7 @@
         <v>534</v>
       </c>
       <c r="E170" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="171">
@@ -6649,7 +6651,7 @@
         <v>537</v>
       </c>
       <c r="E171" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="172">
@@ -6666,7 +6668,7 @@
         <v>541</v>
       </c>
       <c r="E172" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="173">
@@ -6683,7 +6685,7 @@
         <v>118</v>
       </c>
       <c r="E173" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="174">
@@ -6700,7 +6702,7 @@
         <v>543</v>
       </c>
       <c r="E174" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="175">
@@ -6717,7 +6719,7 @@
         <v>547</v>
       </c>
       <c r="E175" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="176">
@@ -6734,7 +6736,7 @@
         <v>384</v>
       </c>
       <c r="E176" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="177">
@@ -6751,7 +6753,7 @@
         <v>487</v>
       </c>
       <c r="E177" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="178">
@@ -6768,7 +6770,7 @@
         <v>554</v>
       </c>
       <c r="E178" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="179">
@@ -6785,7 +6787,7 @@
         <v>487</v>
       </c>
       <c r="E179" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="180">
@@ -6802,7 +6804,7 @@
         <v>559</v>
       </c>
       <c r="E180" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="181">
@@ -6819,7 +6821,7 @@
         <v>561</v>
       </c>
       <c r="E181" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="182">
@@ -6836,7 +6838,7 @@
         <v>564</v>
       </c>
       <c r="E182" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="183">
@@ -6853,7 +6855,7 @@
         <v>568</v>
       </c>
       <c r="E183" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="184">
@@ -6870,7 +6872,7 @@
         <v>572</v>
       </c>
       <c r="E184" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="185">
@@ -6887,7 +6889,7 @@
         <v>574</v>
       </c>
       <c r="E185" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="186">
@@ -6904,7 +6906,7 @@
         <v>577</v>
       </c>
       <c r="E186" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="187">
@@ -6921,7 +6923,7 @@
         <v>579</v>
       </c>
       <c r="E187" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="188">
@@ -6938,7 +6940,7 @@
         <v>582</v>
       </c>
       <c r="E188" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="189">
@@ -6955,7 +6957,7 @@
         <v>586</v>
       </c>
       <c r="E189" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="190">
@@ -6972,7 +6974,7 @@
         <v>590</v>
       </c>
       <c r="E190" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="191">
@@ -6989,7 +6991,7 @@
         <v>582</v>
       </c>
       <c r="E191" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="192">
@@ -7006,7 +7008,7 @@
         <v>595</v>
       </c>
       <c r="E192" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="193">
@@ -7023,7 +7025,7 @@
         <v>515</v>
       </c>
       <c r="E193" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="194">
@@ -7040,7 +7042,7 @@
         <v>600</v>
       </c>
       <c r="E194" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="195">
@@ -7057,7 +7059,7 @@
         <v>603</v>
       </c>
       <c r="E195" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="196">
@@ -7074,7 +7076,7 @@
         <v>607</v>
       </c>
       <c r="E196" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="197">
@@ -7091,7 +7093,7 @@
         <v>610</v>
       </c>
       <c r="E197" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="198">
@@ -7108,7 +7110,7 @@
         <v>612</v>
       </c>
       <c r="E198" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="199">
@@ -7125,7 +7127,7 @@
         <v>572</v>
       </c>
       <c r="E199" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="200">
@@ -7142,7 +7144,7 @@
         <v>577</v>
       </c>
       <c r="E200" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="201">
@@ -7159,7 +7161,7 @@
         <v>619</v>
       </c>
       <c r="E201" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="202">
@@ -7176,7 +7178,7 @@
         <v>426</v>
       </c>
       <c r="E202" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="203">
@@ -7193,7 +7195,7 @@
         <v>624</v>
       </c>
       <c r="E203" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="204">
@@ -7210,7 +7212,7 @@
         <v>625</v>
       </c>
       <c r="E204" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="205">
@@ -7227,7 +7229,7 @@
         <v>568</v>
       </c>
       <c r="E205" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="206">
@@ -7244,7 +7246,7 @@
         <v>501</v>
       </c>
       <c r="E206" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="207">
@@ -7261,7 +7263,7 @@
         <v>632</v>
       </c>
       <c r="E207" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="208">
@@ -7278,7 +7280,7 @@
         <v>635</v>
       </c>
       <c r="E208" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="209">
@@ -7295,7 +7297,7 @@
         <v>624</v>
       </c>
       <c r="E209" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="210">
@@ -7312,7 +7314,7 @@
         <v>640</v>
       </c>
       <c r="E210" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="211">
@@ -7329,7 +7331,7 @@
         <v>328</v>
       </c>
       <c r="E211" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="212">
@@ -7346,7 +7348,7 @@
         <v>645</v>
       </c>
       <c r="E212" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="213">
@@ -7363,7 +7365,7 @@
         <v>647</v>
       </c>
       <c r="E213" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="214">
@@ -7380,7 +7382,7 @@
         <v>651</v>
       </c>
       <c r="E214" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="215">
@@ -7397,7 +7399,7 @@
         <v>655</v>
       </c>
       <c r="E215" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="216">
@@ -7414,7 +7416,7 @@
         <v>658</v>
       </c>
       <c r="E216" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="217">
@@ -7431,7 +7433,7 @@
         <v>508</v>
       </c>
       <c r="E217" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="218">
@@ -7448,7 +7450,7 @@
         <v>663</v>
       </c>
       <c r="E218" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="219">
@@ -7465,7 +7467,7 @@
         <v>603</v>
       </c>
       <c r="E219" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="220">
@@ -7482,7 +7484,7 @@
         <v>667</v>
       </c>
       <c r="E220" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="221">
@@ -7499,7 +7501,7 @@
         <v>669</v>
       </c>
       <c r="E221" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="222">
@@ -7516,7 +7518,7 @@
         <v>671</v>
       </c>
       <c r="E222" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="223">
@@ -7533,7 +7535,7 @@
         <v>671</v>
       </c>
       <c r="E223" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="224">
@@ -7550,7 +7552,7 @@
         <v>677</v>
       </c>
       <c r="E224" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="225">
@@ -7567,7 +7569,7 @@
         <v>680</v>
       </c>
       <c r="E225" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="226">
@@ -7584,7 +7586,7 @@
         <v>683</v>
       </c>
       <c r="E226" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="227">
@@ -7601,7 +7603,7 @@
         <v>686</v>
       </c>
       <c r="E227" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="228">
@@ -7618,7 +7620,7 @@
         <v>689</v>
       </c>
       <c r="E228" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="229">
@@ -7635,7 +7637,7 @@
         <v>691</v>
       </c>
       <c r="E229" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="230">
@@ -7652,7 +7654,7 @@
         <v>693</v>
       </c>
       <c r="E230" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="231">
@@ -7669,7 +7671,7 @@
         <v>696</v>
       </c>
       <c r="E231" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="232">
@@ -7686,7 +7688,7 @@
         <v>308</v>
       </c>
       <c r="E232" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="233">
@@ -7703,7 +7705,7 @@
         <v>691</v>
       </c>
       <c r="E233" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="234">
@@ -7720,7 +7722,7 @@
         <v>705</v>
       </c>
       <c r="E234" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="235">
@@ -7737,7 +7739,7 @@
         <v>707</v>
       </c>
       <c r="E235" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="236">
@@ -7754,7 +7756,7 @@
         <v>590</v>
       </c>
       <c r="E236" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="237">
@@ -7771,7 +7773,7 @@
         <v>710</v>
       </c>
       <c r="E237" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="238">
@@ -7788,7 +7790,7 @@
         <v>481</v>
       </c>
       <c r="E238" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="239">
@@ -7805,7 +7807,7 @@
         <v>572</v>
       </c>
       <c r="E239" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="240">
@@ -7822,7 +7824,7 @@
         <v>716</v>
       </c>
       <c r="E240" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="241">
@@ -7839,7 +7841,7 @@
         <v>582</v>
       </c>
       <c r="E241" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="242">
@@ -7856,7 +7858,7 @@
         <v>720</v>
       </c>
       <c r="E242" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="243">
@@ -7873,7 +7875,7 @@
         <v>444</v>
       </c>
       <c r="E243" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="244">
@@ -7890,7 +7892,7 @@
         <v>635</v>
       </c>
       <c r="E244" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="245">
@@ -7907,7 +7909,7 @@
         <v>726</v>
       </c>
       <c r="E245" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="246">
@@ -7924,7 +7926,7 @@
         <v>508</v>
       </c>
       <c r="E246" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="247">
@@ -7941,7 +7943,7 @@
         <v>729</v>
       </c>
       <c r="E247" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="248">
@@ -7958,7 +7960,7 @@
         <v>732</v>
       </c>
       <c r="E248" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="249">
@@ -7975,7 +7977,7 @@
         <v>735</v>
       </c>
       <c r="E249" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="250">
@@ -7992,7 +7994,7 @@
         <v>635</v>
       </c>
       <c r="E250" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="251">
@@ -8009,7 +8011,7 @@
         <v>740</v>
       </c>
       <c r="E251" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="252">
@@ -8026,7 +8028,7 @@
         <v>744</v>
       </c>
       <c r="E252" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="253">
@@ -8043,7 +8045,7 @@
         <v>748</v>
       </c>
       <c r="E253" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="254">
@@ -8060,7 +8062,7 @@
         <v>751</v>
       </c>
       <c r="E254" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="255">
@@ -8077,7 +8079,7 @@
         <v>754</v>
       </c>
       <c r="E255" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="256">
@@ -8094,7 +8096,7 @@
         <v>757</v>
       </c>
       <c r="E256" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="257">
@@ -8111,7 +8113,7 @@
         <v>760</v>
       </c>
       <c r="E257" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="258">
@@ -8128,7 +8130,7 @@
         <v>763</v>
       </c>
       <c r="E258" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="259">
@@ -8145,7 +8147,7 @@
         <v>763</v>
       </c>
       <c r="E259" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="260">
@@ -8162,7 +8164,7 @@
         <v>768</v>
       </c>
       <c r="E260" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="261">
@@ -8179,7 +8181,7 @@
         <v>771</v>
       </c>
       <c r="E261" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="262">
@@ -8196,7 +8198,7 @@
         <v>771</v>
       </c>
       <c r="E262" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="263">
@@ -8213,7 +8215,7 @@
         <v>118</v>
       </c>
       <c r="E263" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="264">
@@ -8230,7 +8232,7 @@
         <v>777</v>
       </c>
       <c r="E264" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="265">
@@ -8247,7 +8249,7 @@
         <v>779</v>
       </c>
       <c r="E265" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="266">
@@ -8264,7 +8266,7 @@
         <v>586</v>
       </c>
       <c r="E266" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="267">
@@ -8281,7 +8283,7 @@
         <v>726</v>
       </c>
       <c r="E267" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="268">
@@ -8298,7 +8300,7 @@
         <v>786</v>
       </c>
       <c r="E268" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="269">
@@ -8315,7 +8317,7 @@
         <v>789</v>
       </c>
       <c r="E269" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="270">
@@ -8332,7 +8334,7 @@
         <v>792</v>
       </c>
       <c r="E270" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="271">
@@ -8349,7 +8351,7 @@
         <v>250</v>
       </c>
       <c r="E271" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="272">
@@ -8366,7 +8368,7 @@
         <v>795</v>
       </c>
       <c r="E272" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="273">
@@ -8383,7 +8385,7 @@
         <v>798</v>
       </c>
       <c r="E273" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="274">
@@ -8400,7 +8402,7 @@
         <v>802</v>
       </c>
       <c r="E274" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="275">
@@ -8417,7 +8419,7 @@
         <v>568</v>
       </c>
       <c r="E275" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="276">
@@ -8434,7 +8436,7 @@
         <v>806</v>
       </c>
       <c r="E276" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="277">
@@ -8451,7 +8453,7 @@
         <v>809</v>
       </c>
       <c r="E277" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="278">
@@ -8468,7 +8470,7 @@
         <v>812</v>
       </c>
       <c r="E278" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="279">
@@ -8485,7 +8487,7 @@
         <v>814</v>
       </c>
       <c r="E279" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="280">
@@ -8502,7 +8504,7 @@
         <v>768</v>
       </c>
       <c r="E280" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="281">
@@ -8519,7 +8521,7 @@
         <v>625</v>
       </c>
       <c r="E281" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="282">
@@ -8536,7 +8538,7 @@
         <v>795</v>
       </c>
       <c r="E282" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="283">
@@ -8553,7 +8555,7 @@
         <v>824</v>
       </c>
       <c r="E283" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="284">
@@ -8570,7 +8572,7 @@
         <v>827</v>
       </c>
       <c r="E284" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="285">
@@ -8587,7 +8589,7 @@
         <v>732</v>
       </c>
       <c r="E285" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="286">
@@ -8604,7 +8606,7 @@
         <v>308</v>
       </c>
       <c r="E286" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="287">
@@ -8621,7 +8623,7 @@
         <v>833</v>
       </c>
       <c r="E287" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="288">
@@ -8638,7 +8640,7 @@
         <v>835</v>
       </c>
       <c r="E288" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="289">
@@ -8655,7 +8657,7 @@
         <v>837</v>
       </c>
       <c r="E289" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="290">
@@ -8672,7 +8674,7 @@
         <v>696</v>
       </c>
       <c r="E290" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="291">
@@ -8689,7 +8691,7 @@
         <v>844</v>
       </c>
       <c r="E291" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="292">
@@ -8706,7 +8708,7 @@
         <v>693</v>
       </c>
       <c r="E292" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="293">
@@ -8723,7 +8725,7 @@
         <v>848</v>
       </c>
       <c r="E293" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="294">
@@ -8740,7 +8742,7 @@
         <v>851</v>
       </c>
       <c r="E294" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="295">
@@ -8757,7 +8759,7 @@
         <v>854</v>
       </c>
       <c r="E295" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="296">
@@ -8774,7 +8776,7 @@
         <v>624</v>
       </c>
       <c r="E296" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="297">
@@ -8791,7 +8793,7 @@
         <v>655</v>
       </c>
       <c r="E297" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="298">
@@ -8808,7 +8810,7 @@
         <v>860</v>
       </c>
       <c r="E298" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="299">
@@ -8825,7 +8827,7 @@
         <v>851</v>
       </c>
       <c r="E299" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="300">
@@ -8842,7 +8844,7 @@
         <v>751</v>
       </c>
       <c r="E300" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="301">
@@ -8859,7 +8861,7 @@
         <v>867</v>
       </c>
       <c r="E301" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="302">
@@ -8876,7 +8878,7 @@
         <v>870</v>
       </c>
       <c r="E302" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="303">
@@ -8893,7 +8895,7 @@
         <v>732</v>
       </c>
       <c r="E303" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="304">
@@ -8910,7 +8912,7 @@
         <v>874</v>
       </c>
       <c r="E304" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="305">
@@ -8927,7 +8929,7 @@
         <v>877</v>
       </c>
       <c r="E305" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="306">
@@ -8944,7 +8946,7 @@
         <v>880</v>
       </c>
       <c r="E306" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="307">
@@ -8961,7 +8963,7 @@
         <v>882</v>
       </c>
       <c r="E307" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="308">
@@ -8978,7 +8980,7 @@
         <v>885</v>
       </c>
       <c r="E308" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="309">
@@ -8995,7 +8997,7 @@
         <v>889</v>
       </c>
       <c r="E309" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="310">
@@ -9012,7 +9014,7 @@
         <v>880</v>
       </c>
       <c r="E310" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="311">
@@ -9029,7 +9031,7 @@
         <v>384</v>
       </c>
       <c r="E311" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="312">
@@ -9046,7 +9048,7 @@
         <v>895</v>
       </c>
       <c r="E312" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="313">
@@ -9063,7 +9065,7 @@
         <v>492</v>
       </c>
       <c r="E313" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="314">
@@ -9080,7 +9082,7 @@
         <v>691</v>
       </c>
       <c r="E314" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="315">
@@ -9097,7 +9099,7 @@
         <v>901</v>
       </c>
       <c r="E315" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="316">
@@ -9114,7 +9116,7 @@
         <v>904</v>
       </c>
       <c r="E316" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="317">
@@ -9131,7 +9133,7 @@
         <v>462</v>
       </c>
       <c r="E317" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="318">
@@ -9148,7 +9150,7 @@
         <v>693</v>
       </c>
       <c r="E318" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="319">
@@ -9165,7 +9167,7 @@
         <v>469</v>
       </c>
       <c r="E319" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="320">
@@ -9182,7 +9184,7 @@
         <v>915</v>
       </c>
       <c r="E320" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="321">
@@ -9199,7 +9201,7 @@
         <v>308</v>
       </c>
       <c r="E321" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="322">
@@ -9216,7 +9218,7 @@
         <v>547</v>
       </c>
       <c r="E322" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="323">
@@ -9233,7 +9235,7 @@
         <v>795</v>
       </c>
       <c r="E323" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="324">
@@ -9250,7 +9252,7 @@
         <v>870</v>
       </c>
       <c r="E324" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="325">
@@ -9267,7 +9269,7 @@
         <v>924</v>
       </c>
       <c r="E325" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="326">
@@ -9284,7 +9286,7 @@
         <v>669</v>
       </c>
       <c r="E326" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="327">
@@ -9301,7 +9303,7 @@
         <v>930</v>
       </c>
       <c r="E327" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="328">
@@ -9318,7 +9320,7 @@
         <v>933</v>
       </c>
       <c r="E328" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="329">
@@ -9335,7 +9337,7 @@
         <v>935</v>
       </c>
       <c r="E329" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="330">
@@ -9352,7 +9354,7 @@
         <v>937</v>
       </c>
       <c r="E330" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="331">
@@ -9369,7 +9371,7 @@
         <v>940</v>
       </c>
       <c r="E331" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="332">
@@ -9386,7 +9388,7 @@
         <v>561</v>
       </c>
       <c r="E332" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="333">
@@ -9403,7 +9405,7 @@
         <v>945</v>
       </c>
       <c r="E333" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="334">
@@ -9420,7 +9422,7 @@
         <v>947</v>
       </c>
       <c r="E334" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="335">
@@ -9437,7 +9439,7 @@
         <v>837</v>
       </c>
       <c r="E335" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="336">
@@ -9454,7 +9456,7 @@
         <v>655</v>
       </c>
       <c r="E336" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="337">
@@ -9471,7 +9473,7 @@
         <v>669</v>
       </c>
       <c r="E337" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="338">
@@ -9488,7 +9490,7 @@
         <v>954</v>
       </c>
       <c r="E338" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="339">
@@ -9505,7 +9507,7 @@
         <v>957</v>
       </c>
       <c r="E339" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="340">
@@ -9522,7 +9524,7 @@
         <v>960</v>
       </c>
       <c r="E340" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="341">
@@ -9539,7 +9541,7 @@
         <v>945</v>
       </c>
       <c r="E341" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="342">
@@ -9556,7 +9558,7 @@
         <v>586</v>
       </c>
       <c r="E342" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="343">
@@ -9573,7 +9575,7 @@
         <v>904</v>
       </c>
       <c r="E343" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="344">
@@ -9590,7 +9592,7 @@
         <v>632</v>
       </c>
       <c r="E344" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="345">
@@ -9607,7 +9609,7 @@
         <v>824</v>
       </c>
       <c r="E345" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="346">
@@ -9624,7 +9626,7 @@
         <v>960</v>
       </c>
       <c r="E346" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="347">
@@ -9641,7 +9643,7 @@
         <v>974</v>
       </c>
       <c r="E347" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="348">
@@ -9658,7 +9660,7 @@
         <v>977</v>
       </c>
       <c r="E348" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="349">
@@ -9675,7 +9677,7 @@
         <v>693</v>
       </c>
       <c r="E349" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="350">
@@ -9692,7 +9694,7 @@
         <v>572</v>
       </c>
       <c r="E350" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="351">
@@ -9709,7 +9711,7 @@
         <v>982</v>
       </c>
       <c r="E351" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="352">
@@ -9726,7 +9728,7 @@
         <v>771</v>
       </c>
       <c r="E352" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="353">
@@ -9743,7 +9745,7 @@
         <v>987</v>
       </c>
       <c r="E353" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="354">
@@ -9760,7 +9762,7 @@
         <v>744</v>
       </c>
       <c r="E354" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="355">
@@ -9777,7 +9779,7 @@
         <v>957</v>
       </c>
       <c r="E355" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="356">
@@ -9794,7 +9796,7 @@
         <v>874</v>
       </c>
       <c r="E356" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="357">
@@ -9811,7 +9813,7 @@
         <v>935</v>
       </c>
       <c r="E357" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="358">
@@ -9828,7 +9830,7 @@
         <v>995</v>
       </c>
       <c r="E358" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="359">
@@ -9845,7 +9847,7 @@
         <v>997</v>
       </c>
       <c r="E359" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="360">
@@ -9862,7 +9864,7 @@
         <v>1000</v>
       </c>
       <c r="E360" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="361">
@@ -9879,7 +9881,7 @@
         <v>1002</v>
       </c>
       <c r="E361" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="362">
@@ -9896,7 +9898,7 @@
         <v>1005</v>
       </c>
       <c r="E362" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="363">
@@ -9913,7 +9915,7 @@
         <v>1008</v>
       </c>
       <c r="E363" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="364">
@@ -9930,7 +9932,7 @@
         <v>997</v>
       </c>
       <c r="E364" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="365">
@@ -9947,7 +9949,7 @@
         <v>612</v>
       </c>
       <c r="E365" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="366">
@@ -9964,7 +9966,7 @@
         <v>795</v>
       </c>
       <c r="E366" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="367">
@@ -9981,7 +9983,7 @@
         <v>1016</v>
       </c>
       <c r="E367" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="368">
@@ -9998,7 +10000,7 @@
         <v>1002</v>
       </c>
       <c r="E368" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="369">
@@ -10015,7 +10017,7 @@
         <v>655</v>
       </c>
       <c r="E369" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="370">
@@ -10032,7 +10034,7 @@
         <v>1016</v>
       </c>
       <c r="E370" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="371">
@@ -10049,7 +10051,7 @@
         <v>870</v>
       </c>
       <c r="E371" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="372">
@@ -10066,7 +10068,7 @@
         <v>751</v>
       </c>
       <c r="E372" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="373">
@@ -10083,7 +10085,7 @@
         <v>582</v>
       </c>
       <c r="E373" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="374">
@@ -10100,7 +10102,7 @@
         <v>1032</v>
       </c>
       <c r="E374" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="375">
@@ -10117,7 +10119,7 @@
         <v>851</v>
       </c>
       <c r="E375" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="376">
@@ -10134,7 +10136,7 @@
         <v>1038</v>
       </c>
       <c r="E376" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="377">
@@ -10151,7 +10153,7 @@
         <v>669</v>
       </c>
       <c r="E377" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="378">
@@ -10168,7 +10170,7 @@
         <v>935</v>
       </c>
       <c r="E378" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="379">
@@ -10185,7 +10187,7 @@
         <v>625</v>
       </c>
       <c r="E379" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="380">
@@ -10202,7 +10204,7 @@
         <v>744</v>
       </c>
       <c r="E380" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="381">
@@ -10219,7 +10221,7 @@
         <v>1038</v>
       </c>
       <c r="E381" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="382">
@@ -10236,7 +10238,7 @@
         <v>777</v>
       </c>
       <c r="E382" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="383">
@@ -10253,7 +10255,7 @@
         <v>693</v>
       </c>
       <c r="E383" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="384">
@@ -10270,7 +10272,7 @@
         <v>547</v>
       </c>
       <c r="E384" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="385">
@@ -10287,7 +10289,7 @@
         <v>1054</v>
       </c>
       <c r="E385" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="386">
@@ -10304,7 +10306,7 @@
         <v>1057</v>
       </c>
       <c r="E386" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="387">
@@ -10321,7 +10323,7 @@
         <v>1059</v>
       </c>
       <c r="E387" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="388">
@@ -10338,7 +10340,7 @@
         <v>827</v>
       </c>
       <c r="E388" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="389">
@@ -10355,7 +10357,7 @@
         <v>689</v>
       </c>
       <c r="E389" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="390">
@@ -10372,7 +10374,7 @@
         <v>1032</v>
       </c>
       <c r="E390" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="391">
@@ -10389,7 +10391,7 @@
         <v>1069</v>
       </c>
       <c r="E391" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="392">
@@ -10406,7 +10408,7 @@
         <v>382</v>
       </c>
       <c r="E392" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="393">
@@ -10423,7 +10425,7 @@
         <v>837</v>
       </c>
       <c r="E393" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="394">
@@ -10440,7 +10442,7 @@
         <v>789</v>
       </c>
       <c r="E394" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="395">
@@ -10457,7 +10459,7 @@
         <v>880</v>
       </c>
       <c r="E395" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="396">
@@ -10474,7 +10476,7 @@
         <v>1082</v>
       </c>
       <c r="E396" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="397">
@@ -10491,7 +10493,7 @@
         <v>870</v>
       </c>
       <c r="E397" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="398">
@@ -10508,7 +10510,7 @@
         <v>1088</v>
       </c>
       <c r="E398" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="399">
@@ -10525,7 +10527,7 @@
         <v>1082</v>
       </c>
       <c r="E399" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="400">
@@ -10542,7 +10544,7 @@
         <v>995</v>
       </c>
       <c r="E400" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="401">
@@ -10559,7 +10561,7 @@
         <v>945</v>
       </c>
       <c r="E401" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="402">
@@ -10576,7 +10578,7 @@
         <v>1005</v>
       </c>
       <c r="E402" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="403">
@@ -10593,7 +10595,7 @@
         <v>937</v>
       </c>
       <c r="E403" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="404">
@@ -10610,7 +10612,7 @@
         <v>451</v>
       </c>
       <c r="E404" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="405">
@@ -10627,7 +10629,7 @@
         <v>957</v>
       </c>
       <c r="E405" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="406">
@@ -10644,7 +10646,7 @@
         <v>1032</v>
       </c>
       <c r="E406" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="407">
@@ -10661,7 +10663,7 @@
         <v>751</v>
       </c>
       <c r="E407" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="408">
@@ -10678,7 +10680,7 @@
         <v>870</v>
       </c>
       <c r="E408" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="409">
@@ -10695,7 +10697,7 @@
         <v>1107</v>
       </c>
       <c r="E409" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="410">
@@ -10712,7 +10714,7 @@
         <v>1109</v>
       </c>
       <c r="E410" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="411">
@@ -10729,7 +10731,7 @@
         <v>937</v>
       </c>
       <c r="E411" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="412">
@@ -10746,7 +10748,7 @@
         <v>572</v>
       </c>
       <c r="E412" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="413">
@@ -10763,7 +10765,7 @@
         <v>1115</v>
       </c>
       <c r="E413" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="414">
@@ -10780,7 +10782,7 @@
         <v>1117</v>
       </c>
       <c r="E414" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="415">
@@ -10797,7 +10799,7 @@
         <v>1119</v>
       </c>
       <c r="E415" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="416">
@@ -10814,7 +10816,7 @@
         <v>1121</v>
       </c>
       <c r="E416" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="417">
@@ -10831,7 +10833,7 @@
         <v>387</v>
       </c>
       <c r="E417" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="418">
@@ -10848,7 +10850,7 @@
         <v>691</v>
       </c>
       <c r="E418" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="419">
@@ -10865,7 +10867,7 @@
         <v>924</v>
       </c>
       <c r="E419" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="420">
@@ -10882,7 +10884,7 @@
         <v>997</v>
       </c>
       <c r="E420" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
     <row r="421">
@@ -10899,7 +10901,7 @@
         <v>1131</v>
       </c>
       <c r="E421" s="1" t="n">
-        <v>44000</v>
+        <v>44000.9200961503</v>
       </c>
     </row>
   </sheetData>

--- a/Bukan Infografis/milo tokopedia/milo tokopedia.xlsx
+++ b/Bukan Infografis/milo tokopedia/milo tokopedia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1244">
   <si>
     <t xml:space="preserve">nama</t>
   </si>
@@ -3408,6 +3408,342 @@
   </si>
   <si>
     <t xml:space="preserve">48 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7499 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4958 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1932 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2143 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">855 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4306 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1387 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1246 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1895 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5468 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3038 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3733 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp93.990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">991 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1607 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1368 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp58.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11567 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">779 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1904 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">914 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp48.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13166 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1766 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">295 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">615 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">457 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">660 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1002 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp66.989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">451 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">862 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1520 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2151 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">715 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">564 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2586 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1108 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">562 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1043 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">702 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1270 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1226 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">545 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1048 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp57.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp330.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2678 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp55.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">336 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">508 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1084 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">393 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1751 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">668 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">644 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp49.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp41.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp92.990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp9.650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225 Produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259 Produk</t>
   </si>
 </sst>
 </file>
@@ -10904,6 +11240,7112 @@
         <v>44000.9200961503</v>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>5</v>
+      </c>
+      <c r="B422" t="s">
+        <v>14</v>
+      </c>
+      <c r="C422" t="s">
+        <v>7</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E422" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>9</v>
+      </c>
+      <c r="B423" t="s">
+        <v>10</v>
+      </c>
+      <c r="C423" t="s">
+        <v>11</v>
+      </c>
+      <c r="D423" t="s">
+        <v>12</v>
+      </c>
+      <c r="E423" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>13</v>
+      </c>
+      <c r="B424" t="s">
+        <v>267</v>
+      </c>
+      <c r="C424" t="s">
+        <v>15</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E424" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>17</v>
+      </c>
+      <c r="B425" t="s">
+        <v>18</v>
+      </c>
+      <c r="C425" t="s">
+        <v>19</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E425" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>21</v>
+      </c>
+      <c r="B426" t="s">
+        <v>22</v>
+      </c>
+      <c r="C426" t="s">
+        <v>23</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E426" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>25</v>
+      </c>
+      <c r="B427" t="s">
+        <v>26</v>
+      </c>
+      <c r="C427" t="s">
+        <v>27</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E427" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>29</v>
+      </c>
+      <c r="B428" t="s">
+        <v>30</v>
+      </c>
+      <c r="C428" t="s">
+        <v>31</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E428" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>33</v>
+      </c>
+      <c r="B429" t="s">
+        <v>34</v>
+      </c>
+      <c r="C429" t="s">
+        <v>35</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E429" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>37</v>
+      </c>
+      <c r="B430" t="s">
+        <v>38</v>
+      </c>
+      <c r="C430" t="s">
+        <v>39</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E430" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>41</v>
+      </c>
+      <c r="B431" t="s">
+        <v>42</v>
+      </c>
+      <c r="C431" t="s">
+        <v>43</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E431" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>45</v>
+      </c>
+      <c r="B432" t="s">
+        <v>46</v>
+      </c>
+      <c r="C432" t="s">
+        <v>47</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E432" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>49</v>
+      </c>
+      <c r="B433" t="s">
+        <v>10</v>
+      </c>
+      <c r="C433" t="s">
+        <v>11</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E433" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>51</v>
+      </c>
+      <c r="B434" t="s">
+        <v>52</v>
+      </c>
+      <c r="C434" t="s">
+        <v>53</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E434" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>55</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C435" t="s">
+        <v>57</v>
+      </c>
+      <c r="D435" t="s">
+        <v>58</v>
+      </c>
+      <c r="E435" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>59</v>
+      </c>
+      <c r="B436" t="s">
+        <v>60</v>
+      </c>
+      <c r="C436" t="s">
+        <v>61</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E436" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>63</v>
+      </c>
+      <c r="B437" t="s">
+        <v>64</v>
+      </c>
+      <c r="C437" t="s">
+        <v>65</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E437" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>67</v>
+      </c>
+      <c r="B438" t="s">
+        <v>46</v>
+      </c>
+      <c r="C438" t="s">
+        <v>35</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E438" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>69</v>
+      </c>
+      <c r="B439" t="s">
+        <v>70</v>
+      </c>
+      <c r="C439" t="s">
+        <v>71</v>
+      </c>
+      <c r="D439" t="s">
+        <v>72</v>
+      </c>
+      <c r="E439" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>73</v>
+      </c>
+      <c r="B440" t="s">
+        <v>74</v>
+      </c>
+      <c r="C440" t="s">
+        <v>75</v>
+      </c>
+      <c r="D440" t="s">
+        <v>341</v>
+      </c>
+      <c r="E440" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>77</v>
+      </c>
+      <c r="B441" t="s">
+        <v>78</v>
+      </c>
+      <c r="C441" t="s">
+        <v>27</v>
+      </c>
+      <c r="D441" t="s">
+        <v>647</v>
+      </c>
+      <c r="E441" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>80</v>
+      </c>
+      <c r="B442" t="s">
+        <v>10</v>
+      </c>
+      <c r="C442" t="s">
+        <v>81</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E442" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>83</v>
+      </c>
+      <c r="B443" t="s">
+        <v>10</v>
+      </c>
+      <c r="C443" t="s">
+        <v>81</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E443" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>85</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C444" t="s">
+        <v>87</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E444" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>89</v>
+      </c>
+      <c r="B445" t="s">
+        <v>90</v>
+      </c>
+      <c r="C445" t="s">
+        <v>19</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E445" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>92</v>
+      </c>
+      <c r="B446" t="s">
+        <v>93</v>
+      </c>
+      <c r="C446" t="s">
+        <v>94</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E446" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>96</v>
+      </c>
+      <c r="B447" t="s">
+        <v>97</v>
+      </c>
+      <c r="C447" t="s">
+        <v>98</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E447" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>100</v>
+      </c>
+      <c r="B448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C448" t="s">
+        <v>11</v>
+      </c>
+      <c r="D448" t="s">
+        <v>101</v>
+      </c>
+      <c r="E448" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>102</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C449" t="s">
+        <v>104</v>
+      </c>
+      <c r="D449" t="s">
+        <v>28</v>
+      </c>
+      <c r="E449" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>106</v>
+      </c>
+      <c r="B450" t="s">
+        <v>107</v>
+      </c>
+      <c r="C450" t="s">
+        <v>87</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E450" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>109</v>
+      </c>
+      <c r="B451" t="s">
+        <v>110</v>
+      </c>
+      <c r="C451" t="s">
+        <v>111</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E451" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>113</v>
+      </c>
+      <c r="B452" t="s">
+        <v>114</v>
+      </c>
+      <c r="C452" t="s">
+        <v>65</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E452" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>116</v>
+      </c>
+      <c r="B453" t="s">
+        <v>117</v>
+      </c>
+      <c r="C453" t="s">
+        <v>27</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E453" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>119</v>
+      </c>
+      <c r="B454" t="s">
+        <v>38</v>
+      </c>
+      <c r="C454" t="s">
+        <v>39</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E454" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>121</v>
+      </c>
+      <c r="B455" t="s">
+        <v>90</v>
+      </c>
+      <c r="C455" t="s">
+        <v>19</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E455" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>123</v>
+      </c>
+      <c r="B456" t="s">
+        <v>124</v>
+      </c>
+      <c r="C456" t="s">
+        <v>125</v>
+      </c>
+      <c r="D456" t="s">
+        <v>126</v>
+      </c>
+      <c r="E456" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>127</v>
+      </c>
+      <c r="B457" t="s">
+        <v>128</v>
+      </c>
+      <c r="C457" t="s">
+        <v>27</v>
+      </c>
+      <c r="D457" t="s">
+        <v>669</v>
+      </c>
+      <c r="E457" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>130</v>
+      </c>
+      <c r="B458" t="s">
+        <v>131</v>
+      </c>
+      <c r="C458" t="s">
+        <v>27</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E458" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>133</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C459" t="s">
+        <v>135</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E459" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>137</v>
+      </c>
+      <c r="B460" t="s">
+        <v>138</v>
+      </c>
+      <c r="C460" t="s">
+        <v>139</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E460" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>141</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C461" t="s">
+        <v>143</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E461" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>145</v>
+      </c>
+      <c r="B462" t="s">
+        <v>93</v>
+      </c>
+      <c r="C462" t="s">
+        <v>146</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E462" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>148</v>
+      </c>
+      <c r="B463" t="s">
+        <v>114</v>
+      </c>
+      <c r="C463" t="s">
+        <v>149</v>
+      </c>
+      <c r="D463" t="s">
+        <v>150</v>
+      </c>
+      <c r="E463" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>151</v>
+      </c>
+      <c r="B464" t="s">
+        <v>152</v>
+      </c>
+      <c r="C464" t="s">
+        <v>153</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E464" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>155</v>
+      </c>
+      <c r="B465" t="s">
+        <v>156</v>
+      </c>
+      <c r="C465" t="s">
+        <v>157</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E465" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>159</v>
+      </c>
+      <c r="B466" t="s">
+        <v>26</v>
+      </c>
+      <c r="C466" t="s">
+        <v>160</v>
+      </c>
+      <c r="D466" t="s">
+        <v>161</v>
+      </c>
+      <c r="E466" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>162</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C467" t="s">
+        <v>163</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E467" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>165</v>
+      </c>
+      <c r="B468" t="s">
+        <v>10</v>
+      </c>
+      <c r="C468" t="s">
+        <v>11</v>
+      </c>
+      <c r="D468" t="s">
+        <v>166</v>
+      </c>
+      <c r="E468" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>167</v>
+      </c>
+      <c r="B469" t="s">
+        <v>168</v>
+      </c>
+      <c r="C469" t="s">
+        <v>169</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E469" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>171</v>
+      </c>
+      <c r="B470" t="s">
+        <v>46</v>
+      </c>
+      <c r="C470" t="s">
+        <v>47</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E470" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>173</v>
+      </c>
+      <c r="B471" t="s">
+        <v>174</v>
+      </c>
+      <c r="C471" t="s">
+        <v>175</v>
+      </c>
+      <c r="D471" t="s">
+        <v>221</v>
+      </c>
+      <c r="E471" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>177</v>
+      </c>
+      <c r="B472" t="s">
+        <v>178</v>
+      </c>
+      <c r="C472" t="s">
+        <v>179</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E472" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>181</v>
+      </c>
+      <c r="B473" t="s">
+        <v>182</v>
+      </c>
+      <c r="C473" t="s">
+        <v>183</v>
+      </c>
+      <c r="D473" t="s">
+        <v>184</v>
+      </c>
+      <c r="E473" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>185</v>
+      </c>
+      <c r="B474" t="s">
+        <v>186</v>
+      </c>
+      <c r="C474" t="s">
+        <v>187</v>
+      </c>
+      <c r="D474" t="s">
+        <v>188</v>
+      </c>
+      <c r="E474" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>189</v>
+      </c>
+      <c r="B475" t="s">
+        <v>190</v>
+      </c>
+      <c r="C475" t="s">
+        <v>191</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E475" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>185</v>
+      </c>
+      <c r="B476" t="s">
+        <v>186</v>
+      </c>
+      <c r="C476" t="s">
+        <v>193</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E476" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>195</v>
+      </c>
+      <c r="B477" t="s">
+        <v>110</v>
+      </c>
+      <c r="C477" t="s">
+        <v>196</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E477" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>198</v>
+      </c>
+      <c r="B478" t="s">
+        <v>86</v>
+      </c>
+      <c r="C478" t="s">
+        <v>199</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E478" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>201</v>
+      </c>
+      <c r="B479" t="s">
+        <v>202</v>
+      </c>
+      <c r="C479" t="s">
+        <v>39</v>
+      </c>
+      <c r="D479" t="s">
+        <v>203</v>
+      </c>
+      <c r="E479" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>204</v>
+      </c>
+      <c r="B480" t="s">
+        <v>205</v>
+      </c>
+      <c r="C480" t="s">
+        <v>206</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E480" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>208</v>
+      </c>
+      <c r="B481" t="s">
+        <v>209</v>
+      </c>
+      <c r="C481" t="s">
+        <v>210</v>
+      </c>
+      <c r="D481" t="s">
+        <v>211</v>
+      </c>
+      <c r="E481" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>212</v>
+      </c>
+      <c r="B482" t="s">
+        <v>213</v>
+      </c>
+      <c r="C482" t="s">
+        <v>214</v>
+      </c>
+      <c r="D482" t="s">
+        <v>215</v>
+      </c>
+      <c r="E482" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>216</v>
+      </c>
+      <c r="B483" t="s">
+        <v>178</v>
+      </c>
+      <c r="C483" t="s">
+        <v>217</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E483" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>219</v>
+      </c>
+      <c r="B484" t="s">
+        <v>110</v>
+      </c>
+      <c r="C484" t="s">
+        <v>220</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E484" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>222</v>
+      </c>
+      <c r="B485" t="s">
+        <v>114</v>
+      </c>
+      <c r="C485" t="s">
+        <v>27</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E485" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>225</v>
+      </c>
+      <c r="B486" t="s">
+        <v>30</v>
+      </c>
+      <c r="C486" t="s">
+        <v>226</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E486" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>228</v>
+      </c>
+      <c r="B487" t="s">
+        <v>229</v>
+      </c>
+      <c r="C487" t="s">
+        <v>230</v>
+      </c>
+      <c r="D487" t="s">
+        <v>262</v>
+      </c>
+      <c r="E487" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>232</v>
+      </c>
+      <c r="B488" t="s">
+        <v>74</v>
+      </c>
+      <c r="C488" t="s">
+        <v>233</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E488" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>235</v>
+      </c>
+      <c r="B489" t="s">
+        <v>236</v>
+      </c>
+      <c r="C489" t="s">
+        <v>237</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E489" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>239</v>
+      </c>
+      <c r="B490" t="s">
+        <v>240</v>
+      </c>
+      <c r="C490" t="s">
+        <v>241</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E490" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>243</v>
+      </c>
+      <c r="B491" t="s">
+        <v>244</v>
+      </c>
+      <c r="C491" t="s">
+        <v>175</v>
+      </c>
+      <c r="D491" t="s">
+        <v>188</v>
+      </c>
+      <c r="E491" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>246</v>
+      </c>
+      <c r="B492" t="s">
+        <v>213</v>
+      </c>
+      <c r="C492" t="s">
+        <v>214</v>
+      </c>
+      <c r="D492" t="s">
+        <v>247</v>
+      </c>
+      <c r="E492" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>248</v>
+      </c>
+      <c r="B493" t="s">
+        <v>249</v>
+      </c>
+      <c r="C493" t="s">
+        <v>27</v>
+      </c>
+      <c r="D493" t="s">
+        <v>250</v>
+      </c>
+      <c r="E493" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>251</v>
+      </c>
+      <c r="B494" t="s">
+        <v>252</v>
+      </c>
+      <c r="C494" t="s">
+        <v>31</v>
+      </c>
+      <c r="D494" t="s">
+        <v>144</v>
+      </c>
+      <c r="E494" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>254</v>
+      </c>
+      <c r="B495" t="s">
+        <v>114</v>
+      </c>
+      <c r="C495" t="s">
+        <v>255</v>
+      </c>
+      <c r="D495" t="s">
+        <v>242</v>
+      </c>
+      <c r="E495" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>256</v>
+      </c>
+      <c r="B496" t="s">
+        <v>257</v>
+      </c>
+      <c r="C496" t="s">
+        <v>258</v>
+      </c>
+      <c r="D496" t="s">
+        <v>259</v>
+      </c>
+      <c r="E496" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>260</v>
+      </c>
+      <c r="B497" t="s">
+        <v>209</v>
+      </c>
+      <c r="C497" t="s">
+        <v>261</v>
+      </c>
+      <c r="D497" t="s">
+        <v>610</v>
+      </c>
+      <c r="E497" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>263</v>
+      </c>
+      <c r="B498" t="s">
+        <v>264</v>
+      </c>
+      <c r="C498" t="s">
+        <v>71</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E498" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>266</v>
+      </c>
+      <c r="B499" t="s">
+        <v>267</v>
+      </c>
+      <c r="C499" t="s">
+        <v>268</v>
+      </c>
+      <c r="D499" t="s">
+        <v>269</v>
+      </c>
+      <c r="E499" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>270</v>
+      </c>
+      <c r="B500" t="s">
+        <v>190</v>
+      </c>
+      <c r="C500" t="s">
+        <v>271</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E500" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>273</v>
+      </c>
+      <c r="B501" t="s">
+        <v>274</v>
+      </c>
+      <c r="C501" t="s">
+        <v>275</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E501" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>277</v>
+      </c>
+      <c r="B502" t="s">
+        <v>278</v>
+      </c>
+      <c r="C502" t="s">
+        <v>279</v>
+      </c>
+      <c r="D502" t="s">
+        <v>280</v>
+      </c>
+      <c r="E502" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>281</v>
+      </c>
+      <c r="B503" t="s">
+        <v>282</v>
+      </c>
+      <c r="C503" t="s">
+        <v>283</v>
+      </c>
+      <c r="D503" t="s">
+        <v>284</v>
+      </c>
+      <c r="E503" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>285</v>
+      </c>
+      <c r="B504" t="s">
+        <v>278</v>
+      </c>
+      <c r="C504" t="s">
+        <v>199</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E504" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>287</v>
+      </c>
+      <c r="B505" t="s">
+        <v>288</v>
+      </c>
+      <c r="C505" t="s">
+        <v>289</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E505" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>291</v>
+      </c>
+      <c r="B506" t="s">
+        <v>292</v>
+      </c>
+      <c r="C506" t="s">
+        <v>293</v>
+      </c>
+      <c r="D506" t="s">
+        <v>294</v>
+      </c>
+      <c r="E506" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>295</v>
+      </c>
+      <c r="B507" t="s">
+        <v>236</v>
+      </c>
+      <c r="C507" t="s">
+        <v>175</v>
+      </c>
+      <c r="D507" t="s">
+        <v>296</v>
+      </c>
+      <c r="E507" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>297</v>
+      </c>
+      <c r="B508" t="s">
+        <v>209</v>
+      </c>
+      <c r="C508" t="s">
+        <v>210</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E508" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>299</v>
+      </c>
+      <c r="B509" t="s">
+        <v>300</v>
+      </c>
+      <c r="C509" t="s">
+        <v>301</v>
+      </c>
+      <c r="D509" t="s">
+        <v>302</v>
+      </c>
+      <c r="E509" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>303</v>
+      </c>
+      <c r="B510" t="s">
+        <v>274</v>
+      </c>
+      <c r="C510" t="s">
+        <v>275</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E510" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>305</v>
+      </c>
+      <c r="B511" t="s">
+        <v>503</v>
+      </c>
+      <c r="C511" t="s">
+        <v>307</v>
+      </c>
+      <c r="D511" t="s">
+        <v>308</v>
+      </c>
+      <c r="E511" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>309</v>
+      </c>
+      <c r="B512" t="s">
+        <v>310</v>
+      </c>
+      <c r="C512" t="s">
+        <v>311</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E512" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>313</v>
+      </c>
+      <c r="B513" t="s">
+        <v>205</v>
+      </c>
+      <c r="C513" t="s">
+        <v>314</v>
+      </c>
+      <c r="D513" t="s">
+        <v>315</v>
+      </c>
+      <c r="E513" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>316</v>
+      </c>
+      <c r="B514" t="s">
+        <v>190</v>
+      </c>
+      <c r="C514" t="s">
+        <v>94</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E514" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>318</v>
+      </c>
+      <c r="B515" t="s">
+        <v>278</v>
+      </c>
+      <c r="C515" t="s">
+        <v>157</v>
+      </c>
+      <c r="D515" t="s">
+        <v>647</v>
+      </c>
+      <c r="E515" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>320</v>
+      </c>
+      <c r="B516" t="s">
+        <v>321</v>
+      </c>
+      <c r="C516" t="s">
+        <v>11</v>
+      </c>
+      <c r="D516" t="s">
+        <v>322</v>
+      </c>
+      <c r="E516" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>323</v>
+      </c>
+      <c r="B517" t="s">
+        <v>324</v>
+      </c>
+      <c r="C517" t="s">
+        <v>187</v>
+      </c>
+      <c r="D517" t="s">
+        <v>325</v>
+      </c>
+      <c r="E517" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>326</v>
+      </c>
+      <c r="B518" t="s">
+        <v>186</v>
+      </c>
+      <c r="C518" t="s">
+        <v>327</v>
+      </c>
+      <c r="D518" t="s">
+        <v>328</v>
+      </c>
+      <c r="E518" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>329</v>
+      </c>
+      <c r="B519" t="s">
+        <v>330</v>
+      </c>
+      <c r="C519" t="s">
+        <v>160</v>
+      </c>
+      <c r="D519" t="s">
+        <v>331</v>
+      </c>
+      <c r="E519" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>332</v>
+      </c>
+      <c r="B520" t="s">
+        <v>333</v>
+      </c>
+      <c r="C520" t="s">
+        <v>27</v>
+      </c>
+      <c r="D520" t="s">
+        <v>129</v>
+      </c>
+      <c r="E520" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>334</v>
+      </c>
+      <c r="B521" t="s">
+        <v>174</v>
+      </c>
+      <c r="C521" t="s">
+        <v>335</v>
+      </c>
+      <c r="D521" t="s">
+        <v>336</v>
+      </c>
+      <c r="E521" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>337</v>
+      </c>
+      <c r="B522" t="s">
+        <v>209</v>
+      </c>
+      <c r="C522" t="s">
+        <v>217</v>
+      </c>
+      <c r="D522" t="s">
+        <v>338</v>
+      </c>
+      <c r="E522" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>339</v>
+      </c>
+      <c r="B523" t="s">
+        <v>249</v>
+      </c>
+      <c r="C523" t="s">
+        <v>340</v>
+      </c>
+      <c r="D523" t="s">
+        <v>341</v>
+      </c>
+      <c r="E523" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>342</v>
+      </c>
+      <c r="B524" t="s">
+        <v>213</v>
+      </c>
+      <c r="C524" t="s">
+        <v>214</v>
+      </c>
+      <c r="D524" t="s">
+        <v>343</v>
+      </c>
+      <c r="E524" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>344</v>
+      </c>
+      <c r="B525" t="s">
+        <v>345</v>
+      </c>
+      <c r="C525" t="s">
+        <v>111</v>
+      </c>
+      <c r="D525" t="s">
+        <v>346</v>
+      </c>
+      <c r="E525" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>347</v>
+      </c>
+      <c r="B526" t="s">
+        <v>156</v>
+      </c>
+      <c r="C526" t="s">
+        <v>348</v>
+      </c>
+      <c r="D526" t="s">
+        <v>349</v>
+      </c>
+      <c r="E526" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>350</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C527" t="s">
+        <v>351</v>
+      </c>
+      <c r="D527" t="s">
+        <v>377</v>
+      </c>
+      <c r="E527" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>353</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C528" t="s">
+        <v>335</v>
+      </c>
+      <c r="D528" t="s">
+        <v>355</v>
+      </c>
+      <c r="E528" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>356</v>
+      </c>
+      <c r="B529" t="s">
+        <v>357</v>
+      </c>
+      <c r="C529" t="s">
+        <v>358</v>
+      </c>
+      <c r="D529" t="s">
+        <v>496</v>
+      </c>
+      <c r="E529" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>360</v>
+      </c>
+      <c r="B530" t="s">
+        <v>292</v>
+      </c>
+      <c r="C530" t="s">
+        <v>361</v>
+      </c>
+      <c r="D530" t="s">
+        <v>328</v>
+      </c>
+      <c r="E530" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>362</v>
+      </c>
+      <c r="B531" t="s">
+        <v>409</v>
+      </c>
+      <c r="C531" t="s">
+        <v>364</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E531" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>366</v>
+      </c>
+      <c r="B532" t="s">
+        <v>367</v>
+      </c>
+      <c r="C532" t="s">
+        <v>368</v>
+      </c>
+      <c r="D532" t="s">
+        <v>600</v>
+      </c>
+      <c r="E532" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>195</v>
+      </c>
+      <c r="B533" t="s">
+        <v>10</v>
+      </c>
+      <c r="C533" t="s">
+        <v>370</v>
+      </c>
+      <c r="D533" t="s">
+        <v>371</v>
+      </c>
+      <c r="E533" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>372</v>
+      </c>
+      <c r="B534" t="s">
+        <v>373</v>
+      </c>
+      <c r="C534" t="s">
+        <v>153</v>
+      </c>
+      <c r="D534" t="s">
+        <v>253</v>
+      </c>
+      <c r="E534" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>375</v>
+      </c>
+      <c r="B535" t="s">
+        <v>376</v>
+      </c>
+      <c r="C535" t="s">
+        <v>258</v>
+      </c>
+      <c r="D535" t="s">
+        <v>377</v>
+      </c>
+      <c r="E535" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>378</v>
+      </c>
+      <c r="B536" t="s">
+        <v>46</v>
+      </c>
+      <c r="C536" t="s">
+        <v>47</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E536" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>380</v>
+      </c>
+      <c r="B537" t="s">
+        <v>114</v>
+      </c>
+      <c r="C537" t="s">
+        <v>381</v>
+      </c>
+      <c r="D537" t="s">
+        <v>382</v>
+      </c>
+      <c r="E537" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>383</v>
+      </c>
+      <c r="B538" t="s">
+        <v>236</v>
+      </c>
+      <c r="C538" t="s">
+        <v>311</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E538" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>385</v>
+      </c>
+      <c r="B539" t="s">
+        <v>386</v>
+      </c>
+      <c r="C539" t="s">
+        <v>283</v>
+      </c>
+      <c r="D539" t="s">
+        <v>276</v>
+      </c>
+      <c r="E539" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>388</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C540" t="s">
+        <v>335</v>
+      </c>
+      <c r="D540" t="s">
+        <v>389</v>
+      </c>
+      <c r="E540" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>390</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C541" t="s">
+        <v>392</v>
+      </c>
+      <c r="D541" t="s">
+        <v>129</v>
+      </c>
+      <c r="E541" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>394</v>
+      </c>
+      <c r="B542" t="s">
+        <v>395</v>
+      </c>
+      <c r="C542" t="s">
+        <v>396</v>
+      </c>
+      <c r="D542" t="s">
+        <v>129</v>
+      </c>
+      <c r="E542" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>397</v>
+      </c>
+      <c r="B543" t="s">
+        <v>398</v>
+      </c>
+      <c r="C543" t="s">
+        <v>146</v>
+      </c>
+      <c r="D543" t="s">
+        <v>399</v>
+      </c>
+      <c r="E543" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>400</v>
+      </c>
+      <c r="B544" t="s">
+        <v>401</v>
+      </c>
+      <c r="C544" t="s">
+        <v>402</v>
+      </c>
+      <c r="D544" t="s">
+        <v>403</v>
+      </c>
+      <c r="E544" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>404</v>
+      </c>
+      <c r="B545" t="s">
+        <v>405</v>
+      </c>
+      <c r="C545" t="s">
+        <v>406</v>
+      </c>
+      <c r="D545" t="s">
+        <v>407</v>
+      </c>
+      <c r="E545" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>408</v>
+      </c>
+      <c r="B546" t="s">
+        <v>409</v>
+      </c>
+      <c r="C546" t="s">
+        <v>410</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E546" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>412</v>
+      </c>
+      <c r="B547" t="s">
+        <v>413</v>
+      </c>
+      <c r="C547" t="s">
+        <v>414</v>
+      </c>
+      <c r="D547" t="s">
+        <v>371</v>
+      </c>
+      <c r="E547" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>394</v>
+      </c>
+      <c r="B548" t="s">
+        <v>395</v>
+      </c>
+      <c r="C548" t="s">
+        <v>396</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E548" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>416</v>
+      </c>
+      <c r="B549" t="s">
+        <v>10</v>
+      </c>
+      <c r="C549" t="s">
+        <v>81</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E549" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>418</v>
+      </c>
+      <c r="B550" t="s">
+        <v>213</v>
+      </c>
+      <c r="C550" t="s">
+        <v>419</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E550" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>421</v>
+      </c>
+      <c r="B551" t="s">
+        <v>236</v>
+      </c>
+      <c r="C551" t="s">
+        <v>422</v>
+      </c>
+      <c r="D551" t="s">
+        <v>423</v>
+      </c>
+      <c r="E551" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>424</v>
+      </c>
+      <c r="B552" t="s">
+        <v>288</v>
+      </c>
+      <c r="C552" t="s">
+        <v>425</v>
+      </c>
+      <c r="D552" t="s">
+        <v>426</v>
+      </c>
+      <c r="E552" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>427</v>
+      </c>
+      <c r="B553" t="s">
+        <v>428</v>
+      </c>
+      <c r="C553" t="s">
+        <v>429</v>
+      </c>
+      <c r="D553" t="s">
+        <v>430</v>
+      </c>
+      <c r="E553" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>431</v>
+      </c>
+      <c r="B554" t="s">
+        <v>432</v>
+      </c>
+      <c r="C554" t="s">
+        <v>433</v>
+      </c>
+      <c r="D554" t="s">
+        <v>451</v>
+      </c>
+      <c r="E554" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>435</v>
+      </c>
+      <c r="B555" t="s">
+        <v>436</v>
+      </c>
+      <c r="C555" t="s">
+        <v>71</v>
+      </c>
+      <c r="D555" t="s">
+        <v>437</v>
+      </c>
+      <c r="E555" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>438</v>
+      </c>
+      <c r="B556" t="s">
+        <v>439</v>
+      </c>
+      <c r="C556" t="s">
+        <v>440</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E556" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>441</v>
+      </c>
+      <c r="B557" t="s">
+        <v>93</v>
+      </c>
+      <c r="C557" t="s">
+        <v>289</v>
+      </c>
+      <c r="D557" t="s">
+        <v>442</v>
+      </c>
+      <c r="E557" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>121</v>
+      </c>
+      <c r="B558" t="s">
+        <v>257</v>
+      </c>
+      <c r="C558" t="s">
+        <v>443</v>
+      </c>
+      <c r="D558" t="s">
+        <v>444</v>
+      </c>
+      <c r="E558" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>445</v>
+      </c>
+      <c r="B559" t="s">
+        <v>446</v>
+      </c>
+      <c r="C559" t="s">
+        <v>447</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E559" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>449</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C560" t="s">
+        <v>450</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E560" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>452</v>
+      </c>
+      <c r="B561" t="s">
+        <v>453</v>
+      </c>
+      <c r="C561" t="s">
+        <v>19</v>
+      </c>
+      <c r="D561" t="s">
+        <v>600</v>
+      </c>
+      <c r="E561" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>454</v>
+      </c>
+      <c r="B562" t="s">
+        <v>213</v>
+      </c>
+      <c r="C562" t="s">
+        <v>214</v>
+      </c>
+      <c r="D562" t="s">
+        <v>455</v>
+      </c>
+      <c r="E562" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>456</v>
+      </c>
+      <c r="B563" t="s">
+        <v>457</v>
+      </c>
+      <c r="C563" t="s">
+        <v>458</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E563" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>460</v>
+      </c>
+      <c r="B564" t="s">
+        <v>156</v>
+      </c>
+      <c r="C564" t="s">
+        <v>461</v>
+      </c>
+      <c r="D564" t="s">
+        <v>352</v>
+      </c>
+      <c r="E564" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>463</v>
+      </c>
+      <c r="B565" t="s">
+        <v>464</v>
+      </c>
+      <c r="C565" t="s">
+        <v>465</v>
+      </c>
+      <c r="D565" t="s">
+        <v>302</v>
+      </c>
+      <c r="E565" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>467</v>
+      </c>
+      <c r="B566" t="s">
+        <v>22</v>
+      </c>
+      <c r="C566" t="s">
+        <v>468</v>
+      </c>
+      <c r="D566" t="s">
+        <v>469</v>
+      </c>
+      <c r="E566" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>470</v>
+      </c>
+      <c r="B567" t="s">
+        <v>471</v>
+      </c>
+      <c r="C567" t="s">
+        <v>335</v>
+      </c>
+      <c r="D567" t="s">
+        <v>472</v>
+      </c>
+      <c r="E567" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>473</v>
+      </c>
+      <c r="B568" t="s">
+        <v>474</v>
+      </c>
+      <c r="C568" t="s">
+        <v>475</v>
+      </c>
+      <c r="D568" t="s">
+        <v>284</v>
+      </c>
+      <c r="E568" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>476</v>
+      </c>
+      <c r="B569" t="s">
+        <v>213</v>
+      </c>
+      <c r="C569" t="s">
+        <v>214</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E569" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>478</v>
+      </c>
+      <c r="B570" t="s">
+        <v>479</v>
+      </c>
+      <c r="C570" t="s">
+        <v>480</v>
+      </c>
+      <c r="D570" t="s">
+        <v>481</v>
+      </c>
+      <c r="E570" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>482</v>
+      </c>
+      <c r="B571" t="s">
+        <v>376</v>
+      </c>
+      <c r="C571" t="s">
+        <v>71</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E571" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>483</v>
+      </c>
+      <c r="B572" t="s">
+        <v>6</v>
+      </c>
+      <c r="C572" t="s">
+        <v>87</v>
+      </c>
+      <c r="D572" t="s">
+        <v>484</v>
+      </c>
+      <c r="E572" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>485</v>
+      </c>
+      <c r="B573" t="s">
+        <v>78</v>
+      </c>
+      <c r="C573" t="s">
+        <v>486</v>
+      </c>
+      <c r="D573" t="s">
+        <v>680</v>
+      </c>
+      <c r="E573" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>488</v>
+      </c>
+      <c r="B574" t="s">
+        <v>489</v>
+      </c>
+      <c r="C574" t="s">
+        <v>314</v>
+      </c>
+      <c r="D574" t="s">
+        <v>490</v>
+      </c>
+      <c r="E574" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>195</v>
+      </c>
+      <c r="B575" t="s">
+        <v>330</v>
+      </c>
+      <c r="C575" t="s">
+        <v>491</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E575" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>493</v>
+      </c>
+      <c r="B576" t="s">
+        <v>494</v>
+      </c>
+      <c r="C576" t="s">
+        <v>495</v>
+      </c>
+      <c r="D576" t="s">
+        <v>496</v>
+      </c>
+      <c r="E576" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>497</v>
+      </c>
+      <c r="B577" t="s">
+        <v>213</v>
+      </c>
+      <c r="C577" t="s">
+        <v>214</v>
+      </c>
+      <c r="D577" t="s">
+        <v>498</v>
+      </c>
+      <c r="E577" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>499</v>
+      </c>
+      <c r="B578" t="s">
+        <v>178</v>
+      </c>
+      <c r="C578" t="s">
+        <v>500</v>
+      </c>
+      <c r="D578" t="s">
+        <v>531</v>
+      </c>
+      <c r="E578" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>502</v>
+      </c>
+      <c r="B579" t="s">
+        <v>503</v>
+      </c>
+      <c r="C579" t="s">
+        <v>11</v>
+      </c>
+      <c r="D579" t="s">
+        <v>504</v>
+      </c>
+      <c r="E579" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>505</v>
+      </c>
+      <c r="B580" t="s">
+        <v>506</v>
+      </c>
+      <c r="C580" t="s">
+        <v>507</v>
+      </c>
+      <c r="D580" t="s">
+        <v>671</v>
+      </c>
+      <c r="E580" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>509</v>
+      </c>
+      <c r="B581" t="s">
+        <v>510</v>
+      </c>
+      <c r="C581" t="s">
+        <v>511</v>
+      </c>
+      <c r="D581" t="s">
+        <v>512</v>
+      </c>
+      <c r="E581" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>29</v>
+      </c>
+      <c r="B582" t="s">
+        <v>439</v>
+      </c>
+      <c r="C582" t="s">
+        <v>440</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E582" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>514</v>
+      </c>
+      <c r="B583" t="s">
+        <v>409</v>
+      </c>
+      <c r="C583" t="s">
+        <v>111</v>
+      </c>
+      <c r="D583" t="s">
+        <v>444</v>
+      </c>
+      <c r="E583" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>516</v>
+      </c>
+      <c r="B584" t="s">
+        <v>517</v>
+      </c>
+      <c r="C584" t="s">
+        <v>518</v>
+      </c>
+      <c r="D584" t="s">
+        <v>519</v>
+      </c>
+      <c r="E584" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>520</v>
+      </c>
+      <c r="B585" t="s">
+        <v>521</v>
+      </c>
+      <c r="C585" t="s">
+        <v>27</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E585" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>523</v>
+      </c>
+      <c r="B586" t="s">
+        <v>524</v>
+      </c>
+      <c r="C586" t="s">
+        <v>146</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E586" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>525</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C587" t="s">
+        <v>526</v>
+      </c>
+      <c r="D587" t="s">
+        <v>527</v>
+      </c>
+      <c r="E587" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>528</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C588" t="s">
+        <v>75</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E588" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>185</v>
+      </c>
+      <c r="B589" t="s">
+        <v>186</v>
+      </c>
+      <c r="C589" t="s">
+        <v>530</v>
+      </c>
+      <c r="D589" t="s">
+        <v>531</v>
+      </c>
+      <c r="E589" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>532</v>
+      </c>
+      <c r="B590" t="s">
+        <v>292</v>
+      </c>
+      <c r="C590" t="s">
+        <v>533</v>
+      </c>
+      <c r="D590" t="s">
+        <v>534</v>
+      </c>
+      <c r="E590" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>535</v>
+      </c>
+      <c r="B591" t="s">
+        <v>114</v>
+      </c>
+      <c r="C591" t="s">
+        <v>536</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E591" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>538</v>
+      </c>
+      <c r="B592" t="s">
+        <v>539</v>
+      </c>
+      <c r="C592" t="s">
+        <v>540</v>
+      </c>
+      <c r="D592" t="s">
+        <v>541</v>
+      </c>
+      <c r="E592" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>438</v>
+      </c>
+      <c r="B593" t="s">
+        <v>213</v>
+      </c>
+      <c r="C593" t="s">
+        <v>214</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E593" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>542</v>
+      </c>
+      <c r="B594" t="s">
+        <v>213</v>
+      </c>
+      <c r="C594" t="s">
+        <v>419</v>
+      </c>
+      <c r="D594" t="s">
+        <v>543</v>
+      </c>
+      <c r="E594" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>544</v>
+      </c>
+      <c r="B595" t="s">
+        <v>545</v>
+      </c>
+      <c r="C595" t="s">
+        <v>546</v>
+      </c>
+      <c r="D595" t="s">
+        <v>547</v>
+      </c>
+      <c r="E595" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>548</v>
+      </c>
+      <c r="B596" t="s">
+        <v>549</v>
+      </c>
+      <c r="C596" t="s">
+        <v>414</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E596" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>550</v>
+      </c>
+      <c r="B597" t="s">
+        <v>26</v>
+      </c>
+      <c r="C597" t="s">
+        <v>551</v>
+      </c>
+      <c r="D597" t="s">
+        <v>487</v>
+      </c>
+      <c r="E597" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>552</v>
+      </c>
+      <c r="B598" t="s">
+        <v>553</v>
+      </c>
+      <c r="C598" t="s">
+        <v>433</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E598" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>555</v>
+      </c>
+      <c r="B599" t="s">
+        <v>114</v>
+      </c>
+      <c r="C599" t="s">
+        <v>556</v>
+      </c>
+      <c r="D599" t="s">
+        <v>487</v>
+      </c>
+      <c r="E599" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>557</v>
+      </c>
+      <c r="B600" t="s">
+        <v>190</v>
+      </c>
+      <c r="C600" t="s">
+        <v>558</v>
+      </c>
+      <c r="D600" t="s">
+        <v>559</v>
+      </c>
+      <c r="E600" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>560</v>
+      </c>
+      <c r="B601" t="s">
+        <v>236</v>
+      </c>
+      <c r="C601" t="s">
+        <v>271</v>
+      </c>
+      <c r="D601" t="s">
+        <v>561</v>
+      </c>
+      <c r="E601" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>562</v>
+      </c>
+      <c r="B602" t="s">
+        <v>563</v>
+      </c>
+      <c r="C602" t="s">
+        <v>146</v>
+      </c>
+      <c r="D602" t="s">
+        <v>564</v>
+      </c>
+      <c r="E602" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>565</v>
+      </c>
+      <c r="B603" t="s">
+        <v>566</v>
+      </c>
+      <c r="C603" t="s">
+        <v>567</v>
+      </c>
+      <c r="D603" t="s">
+        <v>748</v>
+      </c>
+      <c r="E603" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>569</v>
+      </c>
+      <c r="B604" t="s">
+        <v>570</v>
+      </c>
+      <c r="C604" t="s">
+        <v>571</v>
+      </c>
+      <c r="D604" t="s">
+        <v>572</v>
+      </c>
+      <c r="E604" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>573</v>
+      </c>
+      <c r="B605" t="s">
+        <v>401</v>
+      </c>
+      <c r="C605" t="s">
+        <v>27</v>
+      </c>
+      <c r="D605" t="s">
+        <v>574</v>
+      </c>
+      <c r="E605" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>575</v>
+      </c>
+      <c r="B606" t="s">
+        <v>576</v>
+      </c>
+      <c r="C606" t="s">
+        <v>258</v>
+      </c>
+      <c r="D606" t="s">
+        <v>481</v>
+      </c>
+      <c r="E606" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>578</v>
+      </c>
+      <c r="B607" t="s">
+        <v>213</v>
+      </c>
+      <c r="C607" t="s">
+        <v>214</v>
+      </c>
+      <c r="D607" t="s">
+        <v>579</v>
+      </c>
+      <c r="E607" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>580</v>
+      </c>
+      <c r="B608" t="s">
+        <v>581</v>
+      </c>
+      <c r="C608" t="s">
+        <v>447</v>
+      </c>
+      <c r="D608" t="s">
+        <v>582</v>
+      </c>
+      <c r="E608" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>583</v>
+      </c>
+      <c r="B609" t="s">
+        <v>584</v>
+      </c>
+      <c r="C609" t="s">
+        <v>585</v>
+      </c>
+      <c r="D609" t="s">
+        <v>586</v>
+      </c>
+      <c r="E609" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>587</v>
+      </c>
+      <c r="B610" t="s">
+        <v>588</v>
+      </c>
+      <c r="C610" t="s">
+        <v>589</v>
+      </c>
+      <c r="D610" t="s">
+        <v>590</v>
+      </c>
+      <c r="E610" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>591</v>
+      </c>
+      <c r="B611" t="s">
+        <v>592</v>
+      </c>
+      <c r="C611" t="s">
+        <v>593</v>
+      </c>
+      <c r="D611" t="s">
+        <v>582</v>
+      </c>
+      <c r="E611" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>594</v>
+      </c>
+      <c r="B612" t="s">
+        <v>178</v>
+      </c>
+      <c r="C612" t="s">
+        <v>258</v>
+      </c>
+      <c r="D612" t="s">
+        <v>595</v>
+      </c>
+      <c r="E612" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>596</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C613" t="s">
+        <v>135</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E613" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>597</v>
+      </c>
+      <c r="B614" t="s">
+        <v>598</v>
+      </c>
+      <c r="C614" t="s">
+        <v>599</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E614" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>601</v>
+      </c>
+      <c r="B615" t="s">
+        <v>186</v>
+      </c>
+      <c r="C615" t="s">
+        <v>602</v>
+      </c>
+      <c r="D615" t="s">
+        <v>508</v>
+      </c>
+      <c r="E615" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>604</v>
+      </c>
+      <c r="B616" t="s">
+        <v>605</v>
+      </c>
+      <c r="C616" t="s">
+        <v>606</v>
+      </c>
+      <c r="D616" t="s">
+        <v>607</v>
+      </c>
+      <c r="E616" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>608</v>
+      </c>
+      <c r="B617" t="s">
+        <v>190</v>
+      </c>
+      <c r="C617" t="s">
+        <v>609</v>
+      </c>
+      <c r="D617" t="s">
+        <v>833</v>
+      </c>
+      <c r="E617" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>611</v>
+      </c>
+      <c r="B618" t="s">
+        <v>401</v>
+      </c>
+      <c r="C618" t="s">
+        <v>27</v>
+      </c>
+      <c r="D618" t="s">
+        <v>612</v>
+      </c>
+      <c r="E618" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>613</v>
+      </c>
+      <c r="B619" t="s">
+        <v>205</v>
+      </c>
+      <c r="C619" t="s">
+        <v>614</v>
+      </c>
+      <c r="D619" t="s">
+        <v>696</v>
+      </c>
+      <c r="E619" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>615</v>
+      </c>
+      <c r="B620" t="s">
+        <v>616</v>
+      </c>
+      <c r="C620" t="s">
+        <v>241</v>
+      </c>
+      <c r="D620" t="s">
+        <v>352</v>
+      </c>
+      <c r="E620" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>617</v>
+      </c>
+      <c r="B621" t="s">
+        <v>618</v>
+      </c>
+      <c r="C621" t="s">
+        <v>196</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E621" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>620</v>
+      </c>
+      <c r="B622" t="s">
+        <v>114</v>
+      </c>
+      <c r="C622" t="s">
+        <v>149</v>
+      </c>
+      <c r="D622" t="s">
+        <v>426</v>
+      </c>
+      <c r="E622" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>621</v>
+      </c>
+      <c r="B623" t="s">
+        <v>622</v>
+      </c>
+      <c r="C623" t="s">
+        <v>623</v>
+      </c>
+      <c r="D623" t="s">
+        <v>574</v>
+      </c>
+      <c r="E623" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>37</v>
+      </c>
+      <c r="B624" t="s">
+        <v>38</v>
+      </c>
+      <c r="C624" t="s">
+        <v>364</v>
+      </c>
+      <c r="D624" t="s">
+        <v>663</v>
+      </c>
+      <c r="E624" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>626</v>
+      </c>
+      <c r="B625" t="s">
+        <v>278</v>
+      </c>
+      <c r="C625" t="s">
+        <v>627</v>
+      </c>
+      <c r="D625" t="s">
+        <v>568</v>
+      </c>
+      <c r="E625" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>628</v>
+      </c>
+      <c r="B626" t="s">
+        <v>103</v>
+      </c>
+      <c r="C626" t="s">
+        <v>233</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E626" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>630</v>
+      </c>
+      <c r="B627" t="s">
+        <v>288</v>
+      </c>
+      <c r="C627" t="s">
+        <v>631</v>
+      </c>
+      <c r="D627" t="s">
+        <v>632</v>
+      </c>
+      <c r="E627" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>633</v>
+      </c>
+      <c r="B628" t="s">
+        <v>413</v>
+      </c>
+      <c r="C628" t="s">
+        <v>634</v>
+      </c>
+      <c r="D628" t="s">
+        <v>635</v>
+      </c>
+      <c r="E628" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>636</v>
+      </c>
+      <c r="B629" t="s">
+        <v>18</v>
+      </c>
+      <c r="C629" t="s">
+        <v>637</v>
+      </c>
+      <c r="D629" t="s">
+        <v>561</v>
+      </c>
+      <c r="E629" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>638</v>
+      </c>
+      <c r="B630" t="s">
+        <v>249</v>
+      </c>
+      <c r="C630" t="s">
+        <v>639</v>
+      </c>
+      <c r="D630" t="s">
+        <v>640</v>
+      </c>
+      <c r="E630" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>641</v>
+      </c>
+      <c r="B631" t="s">
+        <v>321</v>
+      </c>
+      <c r="C631" t="s">
+        <v>94</v>
+      </c>
+      <c r="D631" t="s">
+        <v>328</v>
+      </c>
+      <c r="E631" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>642</v>
+      </c>
+      <c r="B632" t="s">
+        <v>643</v>
+      </c>
+      <c r="C632" t="s">
+        <v>644</v>
+      </c>
+      <c r="D632" t="s">
+        <v>645</v>
+      </c>
+      <c r="E632" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>646</v>
+      </c>
+      <c r="B633" t="s">
+        <v>114</v>
+      </c>
+      <c r="C633" t="s">
+        <v>149</v>
+      </c>
+      <c r="D633" t="s">
+        <v>647</v>
+      </c>
+      <c r="E633" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>648</v>
+      </c>
+      <c r="B634" t="s">
+        <v>649</v>
+      </c>
+      <c r="C634" t="s">
+        <v>650</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E634" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>652</v>
+      </c>
+      <c r="B635" t="s">
+        <v>653</v>
+      </c>
+      <c r="C635" t="s">
+        <v>654</v>
+      </c>
+      <c r="D635" t="s">
+        <v>655</v>
+      </c>
+      <c r="E635" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>656</v>
+      </c>
+      <c r="B636" t="s">
+        <v>190</v>
+      </c>
+      <c r="C636" t="s">
+        <v>657</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E636" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>659</v>
+      </c>
+      <c r="B637" t="s">
+        <v>660</v>
+      </c>
+      <c r="C637" t="s">
+        <v>419</v>
+      </c>
+      <c r="D637" t="s">
+        <v>508</v>
+      </c>
+      <c r="E637" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>661</v>
+      </c>
+      <c r="B638" t="s">
+        <v>174</v>
+      </c>
+      <c r="C638" t="s">
+        <v>662</v>
+      </c>
+      <c r="D638" t="s">
+        <v>663</v>
+      </c>
+      <c r="E638" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>664</v>
+      </c>
+      <c r="B639" t="s">
+        <v>86</v>
+      </c>
+      <c r="C639" t="s">
+        <v>665</v>
+      </c>
+      <c r="D639" t="s">
+        <v>559</v>
+      </c>
+      <c r="E639" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>666</v>
+      </c>
+      <c r="B640" t="s">
+        <v>236</v>
+      </c>
+      <c r="C640" t="s">
+        <v>199</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E640" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>668</v>
+      </c>
+      <c r="B641" t="s">
+        <v>439</v>
+      </c>
+      <c r="C641" t="s">
+        <v>440</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E641" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>670</v>
+      </c>
+      <c r="B642" t="s">
+        <v>213</v>
+      </c>
+      <c r="C642" t="s">
+        <v>214</v>
+      </c>
+      <c r="D642" t="s">
+        <v>671</v>
+      </c>
+      <c r="E642" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>672</v>
+      </c>
+      <c r="B643" t="s">
+        <v>673</v>
+      </c>
+      <c r="C643" t="s">
+        <v>674</v>
+      </c>
+      <c r="D643" t="s">
+        <v>901</v>
+      </c>
+      <c r="E643" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>675</v>
+      </c>
+      <c r="B644" t="s">
+        <v>676</v>
+      </c>
+      <c r="C644" t="s">
+        <v>11</v>
+      </c>
+      <c r="D644" t="s">
+        <v>677</v>
+      </c>
+      <c r="E644" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>678</v>
+      </c>
+      <c r="B645" t="s">
+        <v>506</v>
+      </c>
+      <c r="C645" t="s">
+        <v>679</v>
+      </c>
+      <c r="D645" t="s">
+        <v>680</v>
+      </c>
+      <c r="E645" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>681</v>
+      </c>
+      <c r="B646" t="s">
+        <v>588</v>
+      </c>
+      <c r="C646" t="s">
+        <v>682</v>
+      </c>
+      <c r="D646" t="s">
+        <v>683</v>
+      </c>
+      <c r="E646" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>684</v>
+      </c>
+      <c r="B647" t="s">
+        <v>310</v>
+      </c>
+      <c r="C647" t="s">
+        <v>685</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E647" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>687</v>
+      </c>
+      <c r="B648" t="s">
+        <v>688</v>
+      </c>
+      <c r="C648" t="s">
+        <v>679</v>
+      </c>
+      <c r="D648" t="s">
+        <v>689</v>
+      </c>
+      <c r="E648" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>690</v>
+      </c>
+      <c r="B649" t="s">
+        <v>274</v>
+      </c>
+      <c r="C649" t="s">
+        <v>275</v>
+      </c>
+      <c r="D649" t="s">
+        <v>691</v>
+      </c>
+      <c r="E649" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>692</v>
+      </c>
+      <c r="B650" t="s">
+        <v>598</v>
+      </c>
+      <c r="C650" t="s">
+        <v>27</v>
+      </c>
+      <c r="D650" t="s">
+        <v>693</v>
+      </c>
+      <c r="E650" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>694</v>
+      </c>
+      <c r="B651" t="s">
+        <v>86</v>
+      </c>
+      <c r="C651" t="s">
+        <v>695</v>
+      </c>
+      <c r="D651" t="s">
+        <v>624</v>
+      </c>
+      <c r="E651" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>697</v>
+      </c>
+      <c r="B652" t="s">
+        <v>698</v>
+      </c>
+      <c r="C652" t="s">
+        <v>425</v>
+      </c>
+      <c r="D652" t="s">
+        <v>308</v>
+      </c>
+      <c r="E652" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>699</v>
+      </c>
+      <c r="B653" t="s">
+        <v>700</v>
+      </c>
+      <c r="C653" t="s">
+        <v>701</v>
+      </c>
+      <c r="D653" t="s">
+        <v>691</v>
+      </c>
+      <c r="E653" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>702</v>
+      </c>
+      <c r="B654" t="s">
+        <v>703</v>
+      </c>
+      <c r="C654" t="s">
+        <v>704</v>
+      </c>
+      <c r="D654" t="s">
+        <v>705</v>
+      </c>
+      <c r="E654" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>706</v>
+      </c>
+      <c r="B655" t="s">
+        <v>190</v>
+      </c>
+      <c r="C655" t="s">
+        <v>258</v>
+      </c>
+      <c r="D655" t="s">
+        <v>707</v>
+      </c>
+      <c r="E655" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>708</v>
+      </c>
+      <c r="B656" t="s">
+        <v>209</v>
+      </c>
+      <c r="C656" t="s">
+        <v>210</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E656" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>709</v>
+      </c>
+      <c r="B657" t="s">
+        <v>209</v>
+      </c>
+      <c r="C657" t="s">
+        <v>210</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E657" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>711</v>
+      </c>
+      <c r="B658" t="s">
+        <v>292</v>
+      </c>
+      <c r="C658" t="s">
+        <v>301</v>
+      </c>
+      <c r="D658" t="s">
+        <v>481</v>
+      </c>
+      <c r="E658" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>712</v>
+      </c>
+      <c r="B659" t="s">
+        <v>598</v>
+      </c>
+      <c r="C659" t="s">
+        <v>27</v>
+      </c>
+      <c r="D659" t="s">
+        <v>612</v>
+      </c>
+      <c r="E659" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>713</v>
+      </c>
+      <c r="B660" t="s">
+        <v>714</v>
+      </c>
+      <c r="C660" t="s">
+        <v>715</v>
+      </c>
+      <c r="D660" t="s">
+        <v>716</v>
+      </c>
+      <c r="E660" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>717</v>
+      </c>
+      <c r="B661" t="s">
+        <v>718</v>
+      </c>
+      <c r="C661" t="s">
+        <v>61</v>
+      </c>
+      <c r="D661" t="s">
+        <v>582</v>
+      </c>
+      <c r="E661" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>719</v>
+      </c>
+      <c r="B662" t="s">
+        <v>213</v>
+      </c>
+      <c r="C662" t="s">
+        <v>440</v>
+      </c>
+      <c r="D662" t="s">
+        <v>720</v>
+      </c>
+      <c r="E662" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>721</v>
+      </c>
+      <c r="B663" t="s">
+        <v>722</v>
+      </c>
+      <c r="C663" t="s">
+        <v>125</v>
+      </c>
+      <c r="D663" t="s">
+        <v>444</v>
+      </c>
+      <c r="E663" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>723</v>
+      </c>
+      <c r="B664" t="s">
+        <v>457</v>
+      </c>
+      <c r="C664" t="s">
+        <v>571</v>
+      </c>
+      <c r="D664" t="s">
+        <v>635</v>
+      </c>
+      <c r="E664" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>724</v>
+      </c>
+      <c r="B665" t="s">
+        <v>114</v>
+      </c>
+      <c r="C665" t="s">
+        <v>725</v>
+      </c>
+      <c r="D665" t="s">
+        <v>726</v>
+      </c>
+      <c r="E665" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>92</v>
+      </c>
+      <c r="B666" t="s">
+        <v>178</v>
+      </c>
+      <c r="C666" t="s">
+        <v>191</v>
+      </c>
+      <c r="D666" t="s">
+        <v>559</v>
+      </c>
+      <c r="E666" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>727</v>
+      </c>
+      <c r="B667" t="s">
+        <v>728</v>
+      </c>
+      <c r="C667" t="s">
+        <v>11</v>
+      </c>
+      <c r="D667" t="s">
+        <v>729</v>
+      </c>
+      <c r="E667" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>730</v>
+      </c>
+      <c r="B668" t="s">
+        <v>345</v>
+      </c>
+      <c r="C668" t="s">
+        <v>731</v>
+      </c>
+      <c r="D668" t="s">
+        <v>732</v>
+      </c>
+      <c r="E668" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>733</v>
+      </c>
+      <c r="B669" t="s">
+        <v>734</v>
+      </c>
+      <c r="C669" t="s">
+        <v>233</v>
+      </c>
+      <c r="D669" t="s">
+        <v>735</v>
+      </c>
+      <c r="E669" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>736</v>
+      </c>
+      <c r="B670" t="s">
+        <v>288</v>
+      </c>
+      <c r="C670" t="s">
+        <v>737</v>
+      </c>
+      <c r="D670" t="s">
+        <v>635</v>
+      </c>
+      <c r="E670" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>738</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C671" t="s">
+        <v>739</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E671" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>741</v>
+      </c>
+      <c r="B672" t="s">
+        <v>742</v>
+      </c>
+      <c r="C672" t="s">
+        <v>743</v>
+      </c>
+      <c r="D672" t="s">
+        <v>744</v>
+      </c>
+      <c r="E672" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>745</v>
+      </c>
+      <c r="B673" t="s">
+        <v>746</v>
+      </c>
+      <c r="C673" t="s">
+        <v>747</v>
+      </c>
+      <c r="D673" t="s">
+        <v>748</v>
+      </c>
+      <c r="E673" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>626</v>
+      </c>
+      <c r="B674" t="s">
+        <v>749</v>
+      </c>
+      <c r="C674" t="s">
+        <v>750</v>
+      </c>
+      <c r="D674" t="s">
+        <v>751</v>
+      </c>
+      <c r="E674" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>752</v>
+      </c>
+      <c r="B675" t="s">
+        <v>409</v>
+      </c>
+      <c r="C675" t="s">
+        <v>753</v>
+      </c>
+      <c r="D675" t="s">
+        <v>754</v>
+      </c>
+      <c r="E675" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>755</v>
+      </c>
+      <c r="B676" t="s">
+        <v>156</v>
+      </c>
+      <c r="C676" t="s">
+        <v>756</v>
+      </c>
+      <c r="D676" t="s">
+        <v>757</v>
+      </c>
+      <c r="E676" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>758</v>
+      </c>
+      <c r="B677" t="s">
+        <v>759</v>
+      </c>
+      <c r="C677" t="s">
+        <v>662</v>
+      </c>
+      <c r="D677" t="s">
+        <v>760</v>
+      </c>
+      <c r="E677" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>761</v>
+      </c>
+      <c r="B678" t="s">
+        <v>409</v>
+      </c>
+      <c r="C678" t="s">
+        <v>762</v>
+      </c>
+      <c r="D678" t="s">
+        <v>763</v>
+      </c>
+      <c r="E678" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>764</v>
+      </c>
+      <c r="B679" t="s">
+        <v>186</v>
+      </c>
+      <c r="C679" t="s">
+        <v>765</v>
+      </c>
+      <c r="D679" t="s">
+        <v>763</v>
+      </c>
+      <c r="E679" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>766</v>
+      </c>
+      <c r="B680" t="s">
+        <v>6</v>
+      </c>
+      <c r="C680" t="s">
+        <v>767</v>
+      </c>
+      <c r="D680" t="s">
+        <v>768</v>
+      </c>
+      <c r="E680" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>769</v>
+      </c>
+      <c r="B681" t="s">
+        <v>267</v>
+      </c>
+      <c r="C681" t="s">
+        <v>770</v>
+      </c>
+      <c r="D681" t="s">
+        <v>771</v>
+      </c>
+      <c r="E681" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>772</v>
+      </c>
+      <c r="B682" t="s">
+        <v>616</v>
+      </c>
+      <c r="C682" t="s">
+        <v>773</v>
+      </c>
+      <c r="D682" t="s">
+        <v>771</v>
+      </c>
+      <c r="E682" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>774</v>
+      </c>
+      <c r="B683" t="s">
+        <v>363</v>
+      </c>
+      <c r="C683" t="s">
+        <v>39</v>
+      </c>
+      <c r="D683" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E683" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>775</v>
+      </c>
+      <c r="B684" t="s">
+        <v>288</v>
+      </c>
+      <c r="C684" t="s">
+        <v>776</v>
+      </c>
+      <c r="D684" t="s">
+        <v>322</v>
+      </c>
+      <c r="E684" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>778</v>
+      </c>
+      <c r="B685" t="s">
+        <v>213</v>
+      </c>
+      <c r="C685" t="s">
+        <v>214</v>
+      </c>
+      <c r="D685" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E685" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>780</v>
+      </c>
+      <c r="B686" t="s">
+        <v>330</v>
+      </c>
+      <c r="C686" t="s">
+        <v>781</v>
+      </c>
+      <c r="D686" t="s">
+        <v>586</v>
+      </c>
+      <c r="E686" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>782</v>
+      </c>
+      <c r="B687" t="s">
+        <v>209</v>
+      </c>
+      <c r="C687" t="s">
+        <v>75</v>
+      </c>
+      <c r="D687" t="s">
+        <v>603</v>
+      </c>
+      <c r="E687" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>783</v>
+      </c>
+      <c r="B688" t="s">
+        <v>784</v>
+      </c>
+      <c r="C688" t="s">
+        <v>785</v>
+      </c>
+      <c r="D688" t="s">
+        <v>786</v>
+      </c>
+      <c r="E688" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>787</v>
+      </c>
+      <c r="B689" t="s">
+        <v>114</v>
+      </c>
+      <c r="C689" t="s">
+        <v>788</v>
+      </c>
+      <c r="D689" t="s">
+        <v>760</v>
+      </c>
+      <c r="E689" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>790</v>
+      </c>
+      <c r="B690" t="s">
+        <v>791</v>
+      </c>
+      <c r="C690" t="s">
+        <v>639</v>
+      </c>
+      <c r="D690" t="s">
+        <v>792</v>
+      </c>
+      <c r="E690" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>793</v>
+      </c>
+      <c r="B691" t="s">
+        <v>138</v>
+      </c>
+      <c r="C691" t="s">
+        <v>794</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E691" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>116</v>
+      </c>
+      <c r="B692" t="s">
+        <v>124</v>
+      </c>
+      <c r="C692" t="s">
+        <v>614</v>
+      </c>
+      <c r="D692" t="s">
+        <v>795</v>
+      </c>
+      <c r="E692" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>796</v>
+      </c>
+      <c r="B693" t="s">
+        <v>797</v>
+      </c>
+      <c r="C693" t="s">
+        <v>627</v>
+      </c>
+      <c r="D693" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E693" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>799</v>
+      </c>
+      <c r="B694" t="s">
+        <v>800</v>
+      </c>
+      <c r="C694" t="s">
+        <v>801</v>
+      </c>
+      <c r="D694" t="s">
+        <v>802</v>
+      </c>
+      <c r="E694" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>803</v>
+      </c>
+      <c r="B695" t="s">
+        <v>673</v>
+      </c>
+      <c r="C695" t="s">
+        <v>804</v>
+      </c>
+      <c r="D695" t="s">
+        <v>568</v>
+      </c>
+      <c r="E695" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>805</v>
+      </c>
+      <c r="B696" t="s">
+        <v>213</v>
+      </c>
+      <c r="C696" t="s">
+        <v>214</v>
+      </c>
+      <c r="D696" t="s">
+        <v>806</v>
+      </c>
+      <c r="E696" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>807</v>
+      </c>
+      <c r="B697" t="s">
+        <v>808</v>
+      </c>
+      <c r="C697" t="s">
+        <v>773</v>
+      </c>
+      <c r="D697" t="s">
+        <v>809</v>
+      </c>
+      <c r="E697" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>810</v>
+      </c>
+      <c r="B698" t="s">
+        <v>811</v>
+      </c>
+      <c r="C698" t="s">
+        <v>146</v>
+      </c>
+      <c r="D698" t="s">
+        <v>812</v>
+      </c>
+      <c r="E698" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>813</v>
+      </c>
+      <c r="B699" t="s">
+        <v>213</v>
+      </c>
+      <c r="C699" t="s">
+        <v>214</v>
+      </c>
+      <c r="D699" t="s">
+        <v>814</v>
+      </c>
+      <c r="E699" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>815</v>
+      </c>
+      <c r="B700" t="s">
+        <v>357</v>
+      </c>
+      <c r="C700" t="s">
+        <v>817</v>
+      </c>
+      <c r="D700" t="s">
+        <v>645</v>
+      </c>
+      <c r="E700" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>818</v>
+      </c>
+      <c r="B701" t="s">
+        <v>605</v>
+      </c>
+      <c r="C701" t="s">
+        <v>819</v>
+      </c>
+      <c r="D701" t="s">
+        <v>561</v>
+      </c>
+      <c r="E701" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>820</v>
+      </c>
+      <c r="B702" t="s">
+        <v>821</v>
+      </c>
+      <c r="C702" t="s">
+        <v>11</v>
+      </c>
+      <c r="D702" t="s">
+        <v>795</v>
+      </c>
+      <c r="E702" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>822</v>
+      </c>
+      <c r="B703" t="s">
+        <v>236</v>
+      </c>
+      <c r="C703" t="s">
+        <v>823</v>
+      </c>
+      <c r="D703" t="s">
+        <v>824</v>
+      </c>
+      <c r="E703" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>825</v>
+      </c>
+      <c r="B704" t="s">
+        <v>673</v>
+      </c>
+      <c r="C704" t="s">
+        <v>826</v>
+      </c>
+      <c r="D704" t="s">
+        <v>612</v>
+      </c>
+      <c r="E704" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>828</v>
+      </c>
+      <c r="B705" t="s">
+        <v>409</v>
+      </c>
+      <c r="C705" t="s">
+        <v>829</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E705" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>830</v>
+      </c>
+      <c r="B706" t="s">
+        <v>174</v>
+      </c>
+      <c r="C706" t="s">
+        <v>631</v>
+      </c>
+      <c r="D706" t="s">
+        <v>308</v>
+      </c>
+      <c r="E706" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>831</v>
+      </c>
+      <c r="B707" t="s">
+        <v>832</v>
+      </c>
+      <c r="C707" t="s">
+        <v>214</v>
+      </c>
+      <c r="D707" t="s">
+        <v>833</v>
+      </c>
+      <c r="E707" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>834</v>
+      </c>
+      <c r="B708" t="s">
+        <v>213</v>
+      </c>
+      <c r="C708" t="s">
+        <v>419</v>
+      </c>
+      <c r="D708" t="s">
+        <v>835</v>
+      </c>
+      <c r="E708" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>836</v>
+      </c>
+      <c r="B709" t="s">
+        <v>26</v>
+      </c>
+      <c r="C709" t="s">
+        <v>261</v>
+      </c>
+      <c r="D709" t="s">
+        <v>837</v>
+      </c>
+      <c r="E709" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>838</v>
+      </c>
+      <c r="B710" t="s">
+        <v>839</v>
+      </c>
+      <c r="C710" t="s">
+        <v>840</v>
+      </c>
+      <c r="D710" t="s">
+        <v>696</v>
+      </c>
+      <c r="E710" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>841</v>
+      </c>
+      <c r="B711" t="s">
+        <v>842</v>
+      </c>
+      <c r="C711" t="s">
+        <v>843</v>
+      </c>
+      <c r="D711" t="s">
+        <v>930</v>
+      </c>
+      <c r="E711" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>845</v>
+      </c>
+      <c r="B712" t="s">
+        <v>846</v>
+      </c>
+      <c r="C712" t="s">
+        <v>443</v>
+      </c>
+      <c r="D712" t="s">
+        <v>693</v>
+      </c>
+      <c r="E712" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>847</v>
+      </c>
+      <c r="B713" t="s">
+        <v>86</v>
+      </c>
+      <c r="C713" t="s">
+        <v>551</v>
+      </c>
+      <c r="D713" t="s">
+        <v>848</v>
+      </c>
+      <c r="E713" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>849</v>
+      </c>
+      <c r="B714" t="s">
+        <v>190</v>
+      </c>
+      <c r="C714" t="s">
+        <v>850</v>
+      </c>
+      <c r="D714" t="s">
+        <v>851</v>
+      </c>
+      <c r="E714" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>852</v>
+      </c>
+      <c r="B715" t="s">
+        <v>853</v>
+      </c>
+      <c r="C715" t="s">
+        <v>283</v>
+      </c>
+      <c r="D715" t="s">
+        <v>854</v>
+      </c>
+      <c r="E715" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>855</v>
+      </c>
+      <c r="B716" t="s">
+        <v>856</v>
+      </c>
+      <c r="C716" t="s">
+        <v>662</v>
+      </c>
+      <c r="D716" t="s">
+        <v>624</v>
+      </c>
+      <c r="E716" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>857</v>
+      </c>
+      <c r="B717" t="s">
+        <v>46</v>
+      </c>
+      <c r="C717" t="s">
+        <v>567</v>
+      </c>
+      <c r="D717" t="s">
+        <v>655</v>
+      </c>
+      <c r="E717" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>858</v>
+      </c>
+      <c r="B718" t="s">
+        <v>746</v>
+      </c>
+      <c r="C718" t="s">
+        <v>859</v>
+      </c>
+      <c r="D718" t="s">
+        <v>860</v>
+      </c>
+      <c r="E718" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>260</v>
+      </c>
+      <c r="B719" t="s">
+        <v>156</v>
+      </c>
+      <c r="C719" t="s">
+        <v>861</v>
+      </c>
+      <c r="D719" t="s">
+        <v>645</v>
+      </c>
+      <c r="E719" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>862</v>
+      </c>
+      <c r="B720" t="s">
+        <v>863</v>
+      </c>
+      <c r="C720" t="s">
+        <v>864</v>
+      </c>
+      <c r="D720" t="s">
+        <v>751</v>
+      </c>
+      <c r="E720" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>865</v>
+      </c>
+      <c r="B721" t="s">
+        <v>26</v>
+      </c>
+      <c r="C721" t="s">
+        <v>866</v>
+      </c>
+      <c r="D721" t="s">
+        <v>867</v>
+      </c>
+      <c r="E721" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>868</v>
+      </c>
+      <c r="B722" t="s">
+        <v>471</v>
+      </c>
+      <c r="C722" t="s">
+        <v>869</v>
+      </c>
+      <c r="D722" t="s">
+        <v>870</v>
+      </c>
+      <c r="E722" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>871</v>
+      </c>
+      <c r="B723" t="s">
+        <v>584</v>
+      </c>
+      <c r="C723" t="s">
+        <v>348</v>
+      </c>
+      <c r="D723" t="s">
+        <v>732</v>
+      </c>
+      <c r="E723" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>872</v>
+      </c>
+      <c r="B724" t="s">
+        <v>873</v>
+      </c>
+      <c r="C724" t="s">
+        <v>230</v>
+      </c>
+      <c r="D724" t="s">
+        <v>689</v>
+      </c>
+      <c r="E724" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>875</v>
+      </c>
+      <c r="B725" t="s">
+        <v>876</v>
+      </c>
+      <c r="C725" t="s">
+        <v>183</v>
+      </c>
+      <c r="D725" t="s">
+        <v>877</v>
+      </c>
+      <c r="E725" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>878</v>
+      </c>
+      <c r="B726" t="s">
+        <v>879</v>
+      </c>
+      <c r="C726" t="s">
+        <v>271</v>
+      </c>
+      <c r="D726" t="s">
+        <v>744</v>
+      </c>
+      <c r="E726" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>881</v>
+      </c>
+      <c r="B727" t="s">
+        <v>156</v>
+      </c>
+      <c r="C727" t="s">
+        <v>536</v>
+      </c>
+      <c r="D727" t="s">
+        <v>882</v>
+      </c>
+      <c r="E727" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>883</v>
+      </c>
+      <c r="B728" t="s">
+        <v>439</v>
+      </c>
+      <c r="C728" t="s">
+        <v>884</v>
+      </c>
+      <c r="D728" t="s">
+        <v>885</v>
+      </c>
+      <c r="E728" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>886</v>
+      </c>
+      <c r="B729" t="s">
+        <v>887</v>
+      </c>
+      <c r="C729" t="s">
+        <v>888</v>
+      </c>
+      <c r="D729" t="s">
+        <v>889</v>
+      </c>
+      <c r="E729" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>890</v>
+      </c>
+      <c r="B730" t="s">
+        <v>114</v>
+      </c>
+      <c r="C730" t="s">
+        <v>891</v>
+      </c>
+      <c r="D730" t="s">
+        <v>880</v>
+      </c>
+      <c r="E730" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>892</v>
+      </c>
+      <c r="B731" t="s">
+        <v>288</v>
+      </c>
+      <c r="C731" t="s">
+        <v>893</v>
+      </c>
+      <c r="D731" t="s">
+        <v>384</v>
+      </c>
+      <c r="E731" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>894</v>
+      </c>
+      <c r="B732" t="s">
+        <v>213</v>
+      </c>
+      <c r="C732" t="s">
+        <v>214</v>
+      </c>
+      <c r="D732" t="s">
+        <v>895</v>
+      </c>
+      <c r="E732" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>896</v>
+      </c>
+      <c r="B733" t="s">
+        <v>288</v>
+      </c>
+      <c r="C733" t="s">
+        <v>897</v>
+      </c>
+      <c r="D733" t="s">
+        <v>492</v>
+      </c>
+      <c r="E733" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>898</v>
+      </c>
+      <c r="B734" t="s">
+        <v>288</v>
+      </c>
+      <c r="C734" t="s">
+        <v>899</v>
+      </c>
+      <c r="D734" t="s">
+        <v>824</v>
+      </c>
+      <c r="E734" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>900</v>
+      </c>
+      <c r="B735" t="s">
+        <v>257</v>
+      </c>
+      <c r="C735" t="s">
+        <v>823</v>
+      </c>
+      <c r="D735" t="s">
+        <v>901</v>
+      </c>
+      <c r="E735" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>902</v>
+      </c>
+      <c r="B736" t="s">
+        <v>26</v>
+      </c>
+      <c r="C736" t="s">
+        <v>903</v>
+      </c>
+      <c r="D736" t="s">
+        <v>851</v>
+      </c>
+      <c r="E736" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>905</v>
+      </c>
+      <c r="B737" t="s">
+        <v>182</v>
+      </c>
+      <c r="C737" t="s">
+        <v>906</v>
+      </c>
+      <c r="D737" t="s">
+        <v>462</v>
+      </c>
+      <c r="E737" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>907</v>
+      </c>
+      <c r="B738" t="s">
+        <v>908</v>
+      </c>
+      <c r="C738" t="s">
+        <v>909</v>
+      </c>
+      <c r="D738" t="s">
+        <v>693</v>
+      </c>
+      <c r="E738" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>910</v>
+      </c>
+      <c r="B739" t="s">
+        <v>103</v>
+      </c>
+      <c r="C739" t="s">
+        <v>912</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E739" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>913</v>
+      </c>
+      <c r="B740" t="s">
+        <v>510</v>
+      </c>
+      <c r="C740" t="s">
+        <v>914</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E740" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>916</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C741" t="s">
+        <v>917</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E741" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>918</v>
+      </c>
+      <c r="B742" t="s">
+        <v>310</v>
+      </c>
+      <c r="C742" t="s">
+        <v>311</v>
+      </c>
+      <c r="D742" t="s">
+        <v>600</v>
+      </c>
+      <c r="E742" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>919</v>
+      </c>
+      <c r="B743" t="s">
+        <v>401</v>
+      </c>
+      <c r="C743" t="s">
+        <v>920</v>
+      </c>
+      <c r="D743" t="s">
+        <v>795</v>
+      </c>
+      <c r="E743" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>921</v>
+      </c>
+      <c r="B744" t="s">
+        <v>922</v>
+      </c>
+      <c r="C744" t="s">
+        <v>311</v>
+      </c>
+      <c r="D744" t="s">
+        <v>844</v>
+      </c>
+      <c r="E744" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>923</v>
+      </c>
+      <c r="B745" t="s">
+        <v>653</v>
+      </c>
+      <c r="C745" t="s">
+        <v>261</v>
+      </c>
+      <c r="D745" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E745" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>925</v>
+      </c>
+      <c r="B746" t="s">
+        <v>926</v>
+      </c>
+      <c r="C746" t="s">
+        <v>927</v>
+      </c>
+      <c r="D746" t="s">
+        <v>669</v>
+      </c>
+      <c r="E746" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>928</v>
+      </c>
+      <c r="B747" t="s">
+        <v>321</v>
+      </c>
+      <c r="C747" t="s">
+        <v>929</v>
+      </c>
+      <c r="D747" t="s">
+        <v>930</v>
+      </c>
+      <c r="E747" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>931</v>
+      </c>
+      <c r="B748" t="s">
+        <v>932</v>
+      </c>
+      <c r="C748" t="s">
+        <v>146</v>
+      </c>
+      <c r="D748" t="s">
+        <v>933</v>
+      </c>
+      <c r="E748" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>478</v>
+      </c>
+      <c r="B749" t="s">
+        <v>6</v>
+      </c>
+      <c r="C749" t="s">
+        <v>934</v>
+      </c>
+      <c r="D749" t="s">
+        <v>935</v>
+      </c>
+      <c r="E749" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>936</v>
+      </c>
+      <c r="B750" t="s">
+        <v>156</v>
+      </c>
+      <c r="C750" t="s">
+        <v>157</v>
+      </c>
+      <c r="D750" t="s">
+        <v>937</v>
+      </c>
+      <c r="E750" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>938</v>
+      </c>
+      <c r="B751" t="s">
+        <v>673</v>
+      </c>
+      <c r="C751" t="s">
+        <v>939</v>
+      </c>
+      <c r="D751" t="s">
+        <v>940</v>
+      </c>
+      <c r="E751" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>941</v>
+      </c>
+      <c r="B752" t="s">
+        <v>942</v>
+      </c>
+      <c r="C752" t="s">
+        <v>146</v>
+      </c>
+      <c r="D752" t="s">
+        <v>561</v>
+      </c>
+      <c r="E752" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>943</v>
+      </c>
+      <c r="B753" t="s">
+        <v>944</v>
+      </c>
+      <c r="C753" t="s">
+        <v>11</v>
+      </c>
+      <c r="D753" t="s">
+        <v>945</v>
+      </c>
+      <c r="E753" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>946</v>
+      </c>
+      <c r="B754" t="s">
+        <v>494</v>
+      </c>
+      <c r="C754" t="s">
+        <v>75</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E754" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>948</v>
+      </c>
+      <c r="B755" t="s">
+        <v>223</v>
+      </c>
+      <c r="C755" t="s">
+        <v>358</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E755" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>949</v>
+      </c>
+      <c r="B756" t="s">
+        <v>950</v>
+      </c>
+      <c r="C756" t="s">
+        <v>951</v>
+      </c>
+      <c r="D756" t="s">
+        <v>655</v>
+      </c>
+      <c r="E756" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>952</v>
+      </c>
+      <c r="B757" t="s">
+        <v>213</v>
+      </c>
+      <c r="C757" t="s">
+        <v>214</v>
+      </c>
+      <c r="D757" t="s">
+        <v>669</v>
+      </c>
+      <c r="E757" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>953</v>
+      </c>
+      <c r="B758" t="s">
+        <v>213</v>
+      </c>
+      <c r="C758" t="s">
+        <v>214</v>
+      </c>
+      <c r="D758" t="s">
+        <v>954</v>
+      </c>
+      <c r="E758" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>955</v>
+      </c>
+      <c r="B759" t="s">
+        <v>114</v>
+      </c>
+      <c r="C759" t="s">
+        <v>956</v>
+      </c>
+      <c r="D759" t="s">
+        <v>957</v>
+      </c>
+      <c r="E759" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>958</v>
+      </c>
+      <c r="B760" t="s">
+        <v>959</v>
+      </c>
+      <c r="C760" t="s">
+        <v>637</v>
+      </c>
+      <c r="D760" t="s">
+        <v>960</v>
+      </c>
+      <c r="E760" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>961</v>
+      </c>
+      <c r="B761" t="s">
+        <v>288</v>
+      </c>
+      <c r="C761" t="s">
+        <v>962</v>
+      </c>
+      <c r="D761" t="s">
+        <v>945</v>
+      </c>
+      <c r="E761" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>963</v>
+      </c>
+      <c r="B762" t="s">
+        <v>964</v>
+      </c>
+      <c r="C762" t="s">
+        <v>271</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E762" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>965</v>
+      </c>
+      <c r="B763" t="s">
+        <v>30</v>
+      </c>
+      <c r="C763" t="s">
+        <v>966</v>
+      </c>
+      <c r="D763" t="s">
+        <v>904</v>
+      </c>
+      <c r="E763" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>967</v>
+      </c>
+      <c r="B764" t="s">
+        <v>722</v>
+      </c>
+      <c r="C764" t="s">
+        <v>968</v>
+      </c>
+      <c r="D764" t="s">
+        <v>632</v>
+      </c>
+      <c r="E764" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>431</v>
+      </c>
+      <c r="B765" t="s">
+        <v>969</v>
+      </c>
+      <c r="C765" t="s">
+        <v>970</v>
+      </c>
+      <c r="D765" t="s">
+        <v>824</v>
+      </c>
+      <c r="E765" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>971</v>
+      </c>
+      <c r="B766" t="s">
+        <v>223</v>
+      </c>
+      <c r="C766" t="s">
+        <v>972</v>
+      </c>
+      <c r="D766" t="s">
+        <v>960</v>
+      </c>
+      <c r="E766" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>973</v>
+      </c>
+      <c r="B767" t="s">
+        <v>22</v>
+      </c>
+      <c r="C767" t="s">
+        <v>7</v>
+      </c>
+      <c r="D767" t="s">
+        <v>874</v>
+      </c>
+      <c r="E767" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>975</v>
+      </c>
+      <c r="B768" t="s">
+        <v>976</v>
+      </c>
+      <c r="C768" t="s">
+        <v>785</v>
+      </c>
+      <c r="D768" t="s">
+        <v>977</v>
+      </c>
+      <c r="E768" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>978</v>
+      </c>
+      <c r="B769" t="s">
+        <v>979</v>
+      </c>
+      <c r="C769" t="s">
+        <v>217</v>
+      </c>
+      <c r="D769" t="s">
+        <v>693</v>
+      </c>
+      <c r="E769" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>980</v>
+      </c>
+      <c r="B770" t="s">
+        <v>981</v>
+      </c>
+      <c r="C770" t="s">
+        <v>11</v>
+      </c>
+      <c r="D770" t="s">
+        <v>572</v>
+      </c>
+      <c r="E770" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>834</v>
+      </c>
+      <c r="B771" t="s">
+        <v>213</v>
+      </c>
+      <c r="C771" t="s">
+        <v>419</v>
+      </c>
+      <c r="D771" t="s">
+        <v>982</v>
+      </c>
+      <c r="E771" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>983</v>
+      </c>
+      <c r="B772" t="s">
+        <v>984</v>
+      </c>
+      <c r="C772" t="s">
+        <v>71</v>
+      </c>
+      <c r="D772" t="s">
+        <v>508</v>
+      </c>
+      <c r="E772" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>985</v>
+      </c>
+      <c r="B773" t="s">
+        <v>30</v>
+      </c>
+      <c r="C773" t="s">
+        <v>986</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E773" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>988</v>
+      </c>
+      <c r="B774" t="s">
+        <v>306</v>
+      </c>
+      <c r="C774" t="s">
+        <v>11</v>
+      </c>
+      <c r="D774" t="s">
+        <v>744</v>
+      </c>
+      <c r="E774" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>260</v>
+      </c>
+      <c r="B775" t="s">
+        <v>114</v>
+      </c>
+      <c r="C775" t="s">
+        <v>989</v>
+      </c>
+      <c r="D775" t="s">
+        <v>957</v>
+      </c>
+      <c r="E775" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>990</v>
+      </c>
+      <c r="B776" t="s">
+        <v>991</v>
+      </c>
+      <c r="C776" t="s">
+        <v>992</v>
+      </c>
+      <c r="D776" t="s">
+        <v>693</v>
+      </c>
+      <c r="E776" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>993</v>
+      </c>
+      <c r="B777" t="s">
+        <v>26</v>
+      </c>
+      <c r="C777" t="s">
+        <v>992</v>
+      </c>
+      <c r="D777" t="s">
+        <v>935</v>
+      </c>
+      <c r="E777" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>994</v>
+      </c>
+      <c r="B778" t="s">
+        <v>545</v>
+      </c>
+      <c r="C778" t="s">
+        <v>662</v>
+      </c>
+      <c r="D778" t="s">
+        <v>995</v>
+      </c>
+      <c r="E778" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>996</v>
+      </c>
+      <c r="B779" t="s">
+        <v>114</v>
+      </c>
+      <c r="C779" t="s">
+        <v>307</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E779" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>998</v>
+      </c>
+      <c r="B780" t="s">
+        <v>999</v>
+      </c>
+      <c r="C780" t="s">
+        <v>951</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E780" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B781" t="s">
+        <v>521</v>
+      </c>
+      <c r="C781" t="s">
+        <v>135</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E781" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B782" t="s">
+        <v>321</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E782" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B783" t="s">
+        <v>267</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E783" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B784" t="s">
+        <v>616</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D784" t="s">
+        <v>997</v>
+      </c>
+      <c r="E784" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>195</v>
+      </c>
+      <c r="B785" t="s">
+        <v>182</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D785" t="s">
+        <v>612</v>
+      </c>
+      <c r="E785" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B786" t="s">
+        <v>6</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D786" t="s">
+        <v>795</v>
+      </c>
+      <c r="E786" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B787" t="s">
+        <v>6</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E787" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C788" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E788" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D789" t="s">
+        <v>655</v>
+      </c>
+      <c r="E789" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B790" t="s">
+        <v>46</v>
+      </c>
+      <c r="C790" t="s">
+        <v>358</v>
+      </c>
+      <c r="D790" t="s">
+        <v>924</v>
+      </c>
+      <c r="E790" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D791" t="s">
+        <v>870</v>
+      </c>
+      <c r="E791" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B792" t="s">
+        <v>345</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D792" t="s">
+        <v>751</v>
+      </c>
+      <c r="E792" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C793" t="s">
+        <v>53</v>
+      </c>
+      <c r="D793" t="s">
+        <v>582</v>
+      </c>
+      <c r="E793" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>113</v>
+      </c>
+      <c r="B794" t="s">
+        <v>330</v>
+      </c>
+      <c r="C794" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E794" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B795" t="s">
+        <v>174</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D795" t="s">
+        <v>851</v>
+      </c>
+      <c r="E795" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D796" t="s">
+        <v>760</v>
+      </c>
+      <c r="E796" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C797" t="s">
+        <v>57</v>
+      </c>
+      <c r="D797" t="s">
+        <v>669</v>
+      </c>
+      <c r="E797" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B798" t="s">
+        <v>821</v>
+      </c>
+      <c r="C798" t="s">
+        <v>11</v>
+      </c>
+      <c r="D798" t="s">
+        <v>935</v>
+      </c>
+      <c r="E798" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C799" t="s">
+        <v>11</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E799" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B800" t="s">
+        <v>553</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D800" t="s">
+        <v>777</v>
+      </c>
+      <c r="E800" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C801" t="s">
+        <v>57</v>
+      </c>
+      <c r="D801" t="s">
+        <v>693</v>
+      </c>
+      <c r="E801" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B802" t="s">
+        <v>70</v>
+      </c>
+      <c r="C802" t="s">
+        <v>71</v>
+      </c>
+      <c r="D802" t="s">
+        <v>547</v>
+      </c>
+      <c r="E802" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B803" t="s">
+        <v>186</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E803" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C804" t="s">
+        <v>217</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E804" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B805" t="s">
+        <v>213</v>
+      </c>
+      <c r="C805" t="s">
+        <v>419</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E805" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B806" t="s">
+        <v>74</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D806" t="s">
+        <v>880</v>
+      </c>
+      <c r="E806" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D807" t="s">
+        <v>693</v>
+      </c>
+      <c r="E807" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B808" t="s">
+        <v>52</v>
+      </c>
+      <c r="C808" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D808" t="s">
+        <v>997</v>
+      </c>
+      <c r="E808" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B809" t="s">
+        <v>178</v>
+      </c>
+      <c r="C809" t="s">
+        <v>826</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E809" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C810" t="s">
+        <v>819</v>
+      </c>
+      <c r="D810" t="s">
+        <v>484</v>
+      </c>
+      <c r="E810" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B811" t="s">
+        <v>114</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D811" t="s">
+        <v>837</v>
+      </c>
+      <c r="E811" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D812" t="s">
+        <v>789</v>
+      </c>
+      <c r="E812" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D813" t="s">
+        <v>880</v>
+      </c>
+      <c r="E813" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B814" t="s">
+        <v>264</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E814" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C815" t="s">
+        <v>199</v>
+      </c>
+      <c r="D815" t="s">
+        <v>870</v>
+      </c>
+      <c r="E815" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E816" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B817" t="s">
+        <v>10</v>
+      </c>
+      <c r="C817" t="s">
+        <v>475</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E817" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B818" t="s">
+        <v>257</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D818" t="s">
+        <v>995</v>
+      </c>
+      <c r="E818" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C819" t="s">
+        <v>340</v>
+      </c>
+      <c r="D819" t="s">
+        <v>945</v>
+      </c>
+      <c r="E819" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E820" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B821" t="s">
+        <v>6</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D821" t="s">
+        <v>586</v>
+      </c>
+      <c r="E821" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B822" t="s">
+        <v>288</v>
+      </c>
+      <c r="C822" t="s">
+        <v>196</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E822" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B823" t="s">
+        <v>14</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D823" t="s">
+        <v>957</v>
+      </c>
+      <c r="E823" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B824" t="s">
+        <v>236</v>
+      </c>
+      <c r="C824" t="s">
+        <v>364</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E824" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B825" t="s">
+        <v>288</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D825" t="s">
+        <v>751</v>
+      </c>
+      <c r="E825" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B826" t="s">
+        <v>213</v>
+      </c>
+      <c r="C826" t="s">
+        <v>419</v>
+      </c>
+      <c r="D826" t="s">
+        <v>870</v>
+      </c>
+      <c r="E826" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C827" t="s">
+        <v>843</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E827" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B828" t="s">
+        <v>354</v>
+      </c>
+      <c r="C828" t="s">
+        <v>340</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E828" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C829" t="s">
+        <v>143</v>
+      </c>
+      <c r="D829" t="s">
+        <v>937</v>
+      </c>
+      <c r="E829" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B830" t="s">
+        <v>30</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D830" t="s">
+        <v>572</v>
+      </c>
+      <c r="E830" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B831" t="s">
+        <v>213</v>
+      </c>
+      <c r="C831" t="s">
+        <v>214</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E831" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B832" t="s">
+        <v>439</v>
+      </c>
+      <c r="C832" t="s">
+        <v>884</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E832" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B833" t="s">
+        <v>213</v>
+      </c>
+      <c r="C833" t="s">
+        <v>214</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E833" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C834" t="s">
+        <v>75</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E834" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B835" t="s">
+        <v>30</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D835" t="s">
+        <v>387</v>
+      </c>
+      <c r="E835" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D836" t="s">
+        <v>691</v>
+      </c>
+      <c r="E836" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B837" t="s">
+        <v>728</v>
+      </c>
+      <c r="C837" t="s">
+        <v>11</v>
+      </c>
+      <c r="D837" t="s">
+        <v>924</v>
+      </c>
+      <c r="E837" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B838" t="s">
+        <v>186</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D838" t="s">
+        <v>997</v>
+      </c>
+      <c r="E838" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>548</v>
+      </c>
+      <c r="B839" t="s">
+        <v>413</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E839" s="1" t="n">
+        <v>44004.6461002014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
